--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_5_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_5_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>859541.6455916953</v>
+        <v>789278.5154533277</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>410103.569354524</v>
+        <v>410103.5693545244</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11323574.29770152</v>
+        <v>11323574.29770153</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>99.73835480560622</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>32.40145387817622</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W3" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>153.4237150659563</v>
       </c>
     </row>
     <row r="4">
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>75.29987199599606</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,64 +898,64 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>241.5891775064833</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>18.62406031006286</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>222.9651171964204</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="G5" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="H5" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -986,10 +986,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>127.167154708301</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S6" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>224.6571770672012</v>
@@ -1037,13 +1037,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>145.8355658494302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>274.2838073416025</v>
+        <v>168.1572104236695</v>
       </c>
       <c r="Y8" t="n">
         <v>274.2838073416025</v>
@@ -1217,19 +1217,19 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>56.72986549619121</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I9" t="n">
         <v>86.50354346547167</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>181.9053113354452</v>
       </c>
       <c r="V9" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="10">
@@ -1299,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>32.75410523180386</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,19 +1372,19 @@
         <v>383.716409991395</v>
       </c>
       <c r="C11" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.7676097105165</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.55977888071592</v>
+        <v>30.523507268933</v>
       </c>
       <c r="S11" t="n">
-        <v>22.07729479795253</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W11" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.6870717512358</v>
@@ -1454,7 +1454,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D12" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>156.0334337071738</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>58.57982147197339</v>
       </c>
       <c r="S12" t="n">
-        <v>54.77153671511346</v>
+        <v>158.1571708882374</v>
       </c>
       <c r="T12" t="n">
         <v>196.0379550173603</v>
@@ -1511,7 +1511,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W12" t="n">
-        <v>249.98934675</v>
+        <v>234.1363146795482</v>
       </c>
       <c r="X12" t="n">
         <v>204.4616296084783</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.3365529312023</v>
+        <v>122.3080703115509</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4019283127586</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>49.62510967442925</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E14" t="n">
         <v>383.1180357552875</v>
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>11.40019020271094</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>355.1501120970835</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y14" t="n">
         <v>386.6870717512358</v>
@@ -1691,7 +1691,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D15" t="n">
-        <v>146.1124235746456</v>
+        <v>14.74378315941453</v>
       </c>
       <c r="E15" t="n">
         <v>156.0334337071738</v>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>104.844715398324</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>32.05589645506662</v>
+        <v>58.57982147197339</v>
       </c>
       <c r="S15" t="n">
-        <v>158.1571708882373</v>
+        <v>158.1571708882374</v>
       </c>
       <c r="T15" t="n">
         <v>196.0379550173603</v>
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>114.0153110332239</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>157.2983257928464</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>278.3547055216584</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E17" t="n">
-        <v>383.1180357552875</v>
+        <v>125.7194126753058</v>
       </c>
       <c r="F17" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.7676097105165</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>327.0100701439972</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>171.8369970205443</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3907911210793</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>58.57982147197338</v>
+        <v>32.05589645506662</v>
       </c>
       <c r="S18" t="n">
-        <v>158.1571708882373</v>
+        <v>158.1571708882374</v>
       </c>
       <c r="T18" t="n">
         <v>196.0379550173603</v>
       </c>
       <c r="U18" t="n">
-        <v>198.0949836570804</v>
+        <v>224.6189086739872</v>
       </c>
       <c r="V18" t="n">
         <v>231.9087310396551</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.025670721027</v>
+        <v>278.3547055216584</v>
       </c>
       <c r="V19" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>25.48526062110786</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C20" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>163.3117380016203</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>52.04054178752637</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>181.0913913621372</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>218.2060931489365</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3907911210793</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W20" t="n">
-        <v>350.5301170005546</v>
+        <v>93.13149392057296</v>
       </c>
       <c r="X20" t="n">
         <v>370.8615991311694</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>58.57982147197339</v>
+        <v>32.05589645506662</v>
       </c>
       <c r="S21" t="n">
         <v>158.1571708882374</v>
@@ -2216,7 +2216,7 @@
         <v>196.0379550173603</v>
       </c>
       <c r="U21" t="n">
-        <v>198.0949836570804</v>
+        <v>224.6189086739872</v>
       </c>
       <c r="V21" t="n">
         <v>231.9087310396551</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.10588034973471</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>226.2488251719237</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.025670721027</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.0925768874155</v>
+        <v>278.4216116880469</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2326,16 +2326,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H23" t="n">
-        <v>314.586882798332</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X23" t="n">
-        <v>370.8615991311694</v>
+        <v>330.9348471594647</v>
       </c>
       <c r="Y23" t="n">
         <v>386.6870717512358</v>
@@ -2417,7 +2417,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I24" t="n">
-        <v>61.32090000246036</v>
+        <v>61.32090000246102</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>35.73804971802266</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.2763914303091</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>135.3180256216325</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>162.5804740199838</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2563,19 +2563,19 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
         <v>413.4877467656314</v>
       </c>
       <c r="H26" t="n">
-        <v>324.1439237596927</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>53.09075636288746</v>
+        <v>61.75993716234939</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y26" t="n">
         <v>386.6870717512358</v>
@@ -2718,22 +2718,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
-        <v>121.7952990077774</v>
+        <v>167.2763914303091</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1821887834319</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>135.3180256216325</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>28.41377105177698</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.7124403105487</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>58.00612124733537</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         <v>413.4877467656314</v>
       </c>
       <c r="H29" t="n">
-        <v>324.1439237596927</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>55.97983816907737</v>
+        <v>34.64825992555283</v>
       </c>
       <c r="S29" t="n">
-        <v>174.714014505568</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>216.980993107702</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>217.1848404605887</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="30">
@@ -2888,10 +2888,10 @@
         <v>135.2917907515943</v>
       </c>
       <c r="H30" t="n">
-        <v>103.3985434322537</v>
+        <v>103.3985434322543</v>
       </c>
       <c r="I30" t="n">
-        <v>61.32090000246101</v>
+        <v>61.32090000246036</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.28281404613733</v>
+        <v>49.28281404613732</v>
       </c>
       <c r="S30" t="n">
         <v>155.3758183558542</v>
@@ -3003,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.7124403105487</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>155.6167075772034</v>
+        <v>128.3927968208128</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W31" t="n">
         <v>286.0925768874155</v>
@@ -3034,19 +3034,19 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>253.4920944499645</v>
       </c>
       <c r="E32" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
         <v>413.4877467656314</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>55.97983816907734</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T32" t="n">
         <v>216.980993107702</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>74.957027727151</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I33" t="n">
-        <v>61.32090000246101</v>
+        <v>61.32090000246036</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.28281404613733</v>
+        <v>49.28281404613731</v>
       </c>
       <c r="S33" t="n">
         <v>155.3758183558542</v>
@@ -3243,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>128.3927968208125</v>
+        <v>286.0188232547115</v>
       </c>
       <c r="V34" t="n">
-        <v>252.9363510669392</v>
+        <v>95.31032463304057</v>
       </c>
       <c r="W34" t="n">
         <v>286.0925768874155</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>152.5223218189376</v>
+        <v>61.75993716234939</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U35" t="n">
-        <v>204.7039408104448</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I36" t="n">
-        <v>61.32090000246058</v>
+        <v>61.32090000246102</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.28281404613733</v>
+        <v>49.28281404613732</v>
       </c>
       <c r="S36" t="n">
         <v>155.3758183558542</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>33.96906496675886</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>59.57939092438139</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.2763914303091</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1821887834319</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>135.3180256216325</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E38" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H38" t="n">
-        <v>324.1439237596927</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,19 +3550,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>55.97983816907737</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>4.854227667797391</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>229.6665255828298</v>
       </c>
       <c r="W38" t="n">
         <v>350.5301170005546</v>
@@ -3596,13 +3596,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>135.2917907515943</v>
+        <v>135.291790751595</v>
       </c>
       <c r="H39" t="n">
         <v>103.3985434322537</v>
       </c>
       <c r="I39" t="n">
-        <v>61.32090000246101</v>
+        <v>61.32090000246036</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.28281404613733</v>
+        <v>49.28281404613732</v>
       </c>
       <c r="S39" t="n">
         <v>155.3758183558542</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,16 +3675,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.2763914303091</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1821887834319</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>135.3180256216325</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>41.30856600859124</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>128.3927968208128</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3748,16 +3748,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F41" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H41" t="n">
-        <v>324.1439237596927</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>55.97983816907735</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.714014505568</v>
+        <v>34.64825992555283</v>
       </c>
       <c r="T41" t="n">
         <v>216.980993107702</v>
@@ -3799,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>351.9309366116237</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y41" t="n">
         <v>386.6870717512358</v>
@@ -3836,10 +3836,10 @@
         <v>135.2917907515943</v>
       </c>
       <c r="H42" t="n">
-        <v>103.3985434322543</v>
+        <v>103.3985434322537</v>
       </c>
       <c r="I42" t="n">
-        <v>61.32090000246036</v>
+        <v>61.32090000246102</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3903,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>88.19550230474833</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.7124403105487</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>155.6167075772034</v>
       </c>
       <c r="W43" t="n">
         <v>286.0925768874155</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C44" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>34.6482599255528</v>
       </c>
       <c r="I44" t="n">
-        <v>152.5223218189375</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>216.980993107702</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y44" t="n">
-        <v>202.4074968086025</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I45" t="n">
-        <v>61.32090000246036</v>
+        <v>61.32090000246102</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.28281404613777</v>
+        <v>49.28281404613732</v>
       </c>
       <c r="S45" t="n">
         <v>155.3758183558542</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4188,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>128.3927968208128</v>
       </c>
       <c r="U46" t="n">
-        <v>286.0188232547115</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W46" t="n">
-        <v>33.98265709857028</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.9427045873282</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="C2" t="n">
-        <v>21.9427045873282</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="D2" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="E2" t="n">
         <v>21.9427045873282</v>
@@ -4354,28 +4354,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R2" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S2" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T2" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="U2" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="V2" t="n">
-        <v>853.1057571376389</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="W2" t="n">
-        <v>576.0514062875353</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="X2" t="n">
-        <v>298.9970554374318</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="Y2" t="n">
-        <v>21.9427045873282</v>
+        <v>953.8515700725947</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>644.8494452870956</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C3" t="n">
-        <v>472.0963302089128</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D3" t="n">
-        <v>324.5080235678566</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E3" t="n">
-        <v>166.8984945707113</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F3" t="n">
         <v>21.9427045873282</v>
@@ -4412,22 +4412,22 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K3" t="n">
-        <v>21.9427045873282</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L3" t="n">
-        <v>270.0203090292462</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M3" t="n">
-        <v>476.5364731046047</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="N3" t="n">
-        <v>748.0774423727912</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O3" t="n">
-        <v>1015.957061350112</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P3" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q3" t="n">
         <v>1097.13522936641</v>
@@ -4436,25 +4436,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S3" t="n">
-        <v>1064.406488075323</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T3" t="n">
-        <v>1064.406488075323</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U3" t="n">
-        <v>1064.406488075323</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="V3" t="n">
-        <v>1064.406488075323</v>
+        <v>635.9575444099894</v>
       </c>
       <c r="W3" t="n">
-        <v>811.891996408656</v>
+        <v>383.4430527433227</v>
       </c>
       <c r="X3" t="n">
-        <v>811.891996408656</v>
+        <v>176.9161541489002</v>
       </c>
       <c r="Y3" t="n">
-        <v>811.891996408656</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I4" t="n">
-        <v>126.6025577647144</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J4" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K4" t="n">
         <v>21.9427045873282</v>
@@ -4527,13 +4527,13 @@
         <v>202.6630345283467</v>
       </c>
       <c r="W4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1097.13522936641</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="C5" t="n">
-        <v>853.1057571376389</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="D5" t="n">
-        <v>853.1057571376389</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E5" t="n">
-        <v>853.1057571376389</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F5" t="n">
-        <v>576.0514062875353</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G5" t="n">
-        <v>298.9970554374318</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H5" t="n">
         <v>21.9427045873282</v>
@@ -4591,28 +4591,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R5" t="n">
-        <v>1097.13522936641</v>
+        <v>1078.323047235033</v>
       </c>
       <c r="S5" t="n">
-        <v>1097.13522936641</v>
+        <v>1078.323047235033</v>
       </c>
       <c r="T5" t="n">
-        <v>1097.13522936641</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="U5" t="n">
-        <v>1097.13522936641</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="V5" t="n">
-        <v>1097.13522936641</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="W5" t="n">
-        <v>1097.13522936641</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="X5" t="n">
-        <v>1097.13522936641</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="Y5" t="n">
-        <v>1097.13522936641</v>
+        <v>576.0514062875353</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.9427045873282</v>
+        <v>287.7915580351497</v>
       </c>
       <c r="C6" t="n">
-        <v>21.9427045873282</v>
+        <v>287.7915580351497</v>
       </c>
       <c r="D6" t="n">
-        <v>21.9427045873282</v>
+        <v>287.7915580351497</v>
       </c>
       <c r="E6" t="n">
-        <v>21.9427045873282</v>
+        <v>287.7915580351497</v>
       </c>
       <c r="F6" t="n">
-        <v>21.9427045873282</v>
+        <v>159.3398866126235</v>
       </c>
       <c r="G6" t="n">
         <v>21.9427045873282</v>
@@ -4649,13 +4649,13 @@
         <v>29.3360154338131</v>
       </c>
       <c r="K6" t="n">
-        <v>29.3360154338131</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L6" t="n">
-        <v>277.4136198757311</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M6" t="n">
-        <v>548.9545891439176</v>
+        <v>416.655578933882</v>
       </c>
       <c r="N6" t="n">
         <v>630.6851405540922</v>
@@ -4673,25 +4673,25 @@
         <v>1001.483734658237</v>
       </c>
       <c r="S6" t="n">
-        <v>830.8154377838487</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T6" t="n">
-        <v>630.4290419169106</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="U6" t="n">
-        <v>403.5026004348891</v>
+        <v>774.5572931762155</v>
       </c>
       <c r="V6" t="n">
-        <v>169.25135696049</v>
+        <v>540.3060497018164</v>
       </c>
       <c r="W6" t="n">
-        <v>169.25135696049</v>
+        <v>287.7915580351497</v>
       </c>
       <c r="X6" t="n">
-        <v>169.25135696049</v>
+        <v>287.7915580351497</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.9427045873282</v>
+        <v>287.7915580351497</v>
       </c>
     </row>
     <row r="7">
@@ -4755,7 +4755,7 @@
         <v>202.6630345283467</v>
       </c>
       <c r="T7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U7" t="n">
         <v>21.9427045873282</v>
@@ -4828,28 +4828,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R8" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S8" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T8" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="U8" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="V8" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="W8" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="X8" t="n">
-        <v>820.0808785163064</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="Y8" t="n">
-        <v>543.0265276662028</v>
+        <v>298.9970554374318</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>596.5641943094495</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="C9" t="n">
-        <v>596.5641943094495</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="D9" t="n">
-        <v>448.9758876683933</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="E9" t="n">
-        <v>448.9758876683933</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="F9" t="n">
-        <v>304.0200976850102</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="G9" t="n">
-        <v>166.6229156597149</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="H9" t="n">
         <v>109.3200212191178</v>
@@ -4892,7 +4892,7 @@
         <v>409.2622680873972</v>
       </c>
       <c r="M9" t="n">
-        <v>409.2622680873972</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="N9" t="n">
         <v>630.6851405540922</v>
@@ -4907,28 +4907,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R9" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S9" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T9" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U9" t="n">
-        <v>830.8154377838487</v>
+        <v>913.392490643738</v>
       </c>
       <c r="V9" t="n">
-        <v>596.5641943094495</v>
+        <v>679.1412471693388</v>
       </c>
       <c r="W9" t="n">
-        <v>596.5641943094495</v>
+        <v>426.6267555026722</v>
       </c>
       <c r="X9" t="n">
-        <v>596.5641943094495</v>
+        <v>426.6267555026722</v>
       </c>
       <c r="Y9" t="n">
-        <v>596.5641943094495</v>
+        <v>220.8983197263226</v>
       </c>
     </row>
     <row r="10">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E10" t="n">
-        <v>169.5780797487469</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F10" t="n">
         <v>21.9427045873282</v>
@@ -5001,13 +5001,13 @@
         <v>202.6630345283467</v>
       </c>
       <c r="W10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>417.7534586069403</v>
+        <v>1212.203238951849</v>
       </c>
       <c r="C11" t="n">
-        <v>47.06144276962452</v>
+        <v>1212.203238951849</v>
       </c>
       <c r="D11" t="n">
-        <v>47.06144276962452</v>
+        <v>851.9964381896286</v>
       </c>
       <c r="E11" t="n">
-        <v>47.06144276962452</v>
+        <v>465.0085232852978</v>
       </c>
       <c r="F11" t="n">
-        <v>47.06144276962452</v>
+        <v>465.0085232852978</v>
       </c>
       <c r="G11" t="n">
         <v>47.06144276962452</v>
@@ -5041,16 +5041,16 @@
         <v>47.06144276962452</v>
       </c>
       <c r="J11" t="n">
-        <v>137.7570291265972</v>
+        <v>137.7570291265968</v>
       </c>
       <c r="K11" t="n">
-        <v>395.9627954019091</v>
+        <v>395.9627954019087</v>
       </c>
       <c r="L11" t="n">
-        <v>768.2589587052589</v>
+        <v>768.2589587052585</v>
       </c>
       <c r="M11" t="n">
-        <v>1197.722468029211</v>
+        <v>1197.72246802921</v>
       </c>
       <c r="N11" t="n">
         <v>1618.617970932029</v>
@@ -5065,28 +5065,28 @@
         <v>2353.072138481226</v>
       </c>
       <c r="R11" t="n">
-        <v>2278.769331531008</v>
+        <v>2322.240312957051</v>
       </c>
       <c r="S11" t="n">
-        <v>2256.469033755298</v>
+        <v>2322.240312957051</v>
       </c>
       <c r="T11" t="n">
-        <v>2256.469033755298</v>
+        <v>2322.240312957051</v>
       </c>
       <c r="U11" t="n">
-        <v>2256.469033755298</v>
+        <v>2322.240312957051</v>
       </c>
       <c r="V11" t="n">
-        <v>1924.617294843662</v>
+        <v>1990.388574045416</v>
       </c>
       <c r="W11" t="n">
-        <v>1570.546469590577</v>
+        <v>1990.388574045416</v>
       </c>
       <c r="X11" t="n">
-        <v>1195.938793700507</v>
+        <v>1990.388574045416</v>
       </c>
       <c r="Y11" t="n">
-        <v>805.3457919315817</v>
+        <v>1599.795572276491</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>806.7778103665537</v>
+        <v>659.1895037254976</v>
       </c>
       <c r="C12" t="n">
-        <v>634.0246952883708</v>
+        <v>486.4363886473147</v>
       </c>
       <c r="D12" t="n">
         <v>486.4363886473147</v>
@@ -5120,16 +5120,16 @@
         <v>47.06144276962452</v>
       </c>
       <c r="J12" t="n">
-        <v>47.06144276962452</v>
+        <v>108.8611578587506</v>
       </c>
       <c r="K12" t="n">
-        <v>107.1143052499137</v>
+        <v>341.0923274921449</v>
       </c>
       <c r="L12" t="n">
-        <v>480.227378891588</v>
+        <v>714.2054011338191</v>
       </c>
       <c r="M12" t="n">
-        <v>968.4329312993971</v>
+        <v>1202.410953541628</v>
       </c>
       <c r="N12" t="n">
         <v>1484.958563981913</v>
@@ -5144,28 +5144,28 @@
         <v>2353.072138481226</v>
       </c>
       <c r="R12" t="n">
-        <v>2353.072138481226</v>
+        <v>2293.900601640849</v>
       </c>
       <c r="S12" t="n">
-        <v>2297.747353920505</v>
+        <v>2134.145883571922</v>
       </c>
       <c r="T12" t="n">
-        <v>2099.729217539333</v>
+        <v>1936.12774719075</v>
       </c>
       <c r="U12" t="n">
-        <v>1872.841430999952</v>
+        <v>1709.239960651369</v>
       </c>
       <c r="V12" t="n">
-        <v>1638.590187525553</v>
+        <v>1474.98871717697</v>
       </c>
       <c r="W12" t="n">
-        <v>1386.075695858886</v>
+        <v>1238.48738921783</v>
       </c>
       <c r="X12" t="n">
-        <v>1179.548797264464</v>
+        <v>1031.960490623408</v>
       </c>
       <c r="Y12" t="n">
-        <v>973.8203614881141</v>
+        <v>826.2320548470581</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>435.3074942023419</v>
+        <v>617.2102128798002</v>
       </c>
       <c r="C13" t="n">
-        <v>266.2806730597133</v>
+        <v>493.6667075145972</v>
       </c>
       <c r="D13" t="n">
-        <v>266.2806730597133</v>
+        <v>343.156034267608</v>
       </c>
       <c r="E13" t="n">
-        <v>266.2806730597133</v>
+        <v>194.6968179310432</v>
       </c>
       <c r="F13" t="n">
-        <v>266.2806730597133</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="G13" t="n">
-        <v>97.18781617813892</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="H13" t="n">
         <v>47.06144276962452</v>
@@ -5202,49 +5202,49 @@
         <v>47.06144276962452</v>
       </c>
       <c r="K13" t="n">
-        <v>88.52550135650138</v>
+        <v>88.52550135650137</v>
       </c>
       <c r="L13" t="n">
-        <v>197.3888359084144</v>
+        <v>197.3888359084143</v>
       </c>
       <c r="M13" t="n">
         <v>322.7628580499604</v>
       </c>
       <c r="N13" t="n">
-        <v>450.2970280645392</v>
+        <v>450.2970280645391</v>
       </c>
       <c r="O13" t="n">
-        <v>552.7588795211516</v>
+        <v>552.7588795211515</v>
       </c>
       <c r="P13" t="n">
-        <v>617.2102128798003</v>
+        <v>617.2102128798002</v>
       </c>
       <c r="Q13" t="n">
-        <v>617.2102128798003</v>
+        <v>617.2102128798002</v>
       </c>
       <c r="R13" t="n">
-        <v>617.2102128798003</v>
+        <v>617.2102128798002</v>
       </c>
       <c r="S13" t="n">
-        <v>617.2102128798003</v>
+        <v>617.2102128798002</v>
       </c>
       <c r="T13" t="n">
-        <v>617.2102128798003</v>
+        <v>617.2102128798002</v>
       </c>
       <c r="U13" t="n">
-        <v>617.2102128798003</v>
+        <v>617.2102128798002</v>
       </c>
       <c r="V13" t="n">
-        <v>617.2102128798003</v>
+        <v>617.2102128798002</v>
       </c>
       <c r="W13" t="n">
-        <v>617.2102128798003</v>
+        <v>617.2102128798002</v>
       </c>
       <c r="X13" t="n">
-        <v>617.2102128798003</v>
+        <v>617.2102128798002</v>
       </c>
       <c r="Y13" t="n">
-        <v>617.2102128798003</v>
+        <v>617.2102128798002</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1216.149316420908</v>
+        <v>1576.356117183129</v>
       </c>
       <c r="C14" t="n">
-        <v>845.4573005835925</v>
+        <v>1205.664101345813</v>
       </c>
       <c r="D14" t="n">
         <v>845.4573005835925</v>
@@ -5284,7 +5284,7 @@
         <v>395.9627954019089</v>
       </c>
       <c r="L14" t="n">
-        <v>768.2589587052585</v>
+        <v>768.2589587052586</v>
       </c>
       <c r="M14" t="n">
         <v>1197.72246802921</v>
@@ -5314,16 +5314,16 @@
         <v>2353.072138481226</v>
       </c>
       <c r="V14" t="n">
-        <v>2353.072138481226</v>
+        <v>2341.556794842124</v>
       </c>
       <c r="W14" t="n">
-        <v>2353.072138481226</v>
+        <v>2341.556794842124</v>
       </c>
       <c r="X14" t="n">
-        <v>1994.334651514475</v>
+        <v>1966.949118952054</v>
       </c>
       <c r="Y14" t="n">
-        <v>1603.74164974555</v>
+        <v>1576.356117183129</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>669.9681834693919</v>
+        <v>643.1763400179706</v>
       </c>
       <c r="C15" t="n">
-        <v>497.2150683912091</v>
+        <v>470.4232249397878</v>
       </c>
       <c r="D15" t="n">
-        <v>349.6267617501529</v>
+        <v>455.5305146777529</v>
       </c>
       <c r="E15" t="n">
-        <v>192.0172327530076</v>
+        <v>297.9209856806076</v>
       </c>
       <c r="F15" t="n">
-        <v>47.06144276962452</v>
+        <v>152.9651956972245</v>
       </c>
       <c r="G15" t="n">
-        <v>47.06144276962452</v>
+        <v>152.9651956972245</v>
       </c>
       <c r="H15" t="n">
         <v>47.06144276962452</v>
@@ -5360,49 +5360,49 @@
         <v>108.8611578587506</v>
       </c>
       <c r="K15" t="n">
-        <v>341.092327492145</v>
+        <v>341.0923274921449</v>
       </c>
       <c r="L15" t="n">
-        <v>714.2054011338194</v>
+        <v>480.227378891588</v>
       </c>
       <c r="M15" t="n">
-        <v>1202.410953541628</v>
+        <v>968.4329312993971</v>
       </c>
       <c r="N15" t="n">
-        <v>1718.936586224144</v>
+        <v>1484.958563981913</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.82860996218</v>
+        <v>1889.850587719948</v>
       </c>
       <c r="P15" t="n">
-        <v>2353.072138481226</v>
+        <v>2198.385591602395</v>
       </c>
       <c r="Q15" t="n">
         <v>2353.072138481226</v>
       </c>
       <c r="R15" t="n">
-        <v>2320.69244509227</v>
+        <v>2293.900601640849</v>
       </c>
       <c r="S15" t="n">
-        <v>2160.937727023343</v>
+        <v>2134.145883571922</v>
       </c>
       <c r="T15" t="n">
-        <v>1962.919590642171</v>
+        <v>1936.12774719075</v>
       </c>
       <c r="U15" t="n">
-        <v>1736.03180410279</v>
+        <v>1709.239960651369</v>
       </c>
       <c r="V15" t="n">
-        <v>1501.780560628391</v>
+        <v>1474.98871717697</v>
       </c>
       <c r="W15" t="n">
-        <v>1249.266068961724</v>
+        <v>1222.474225510303</v>
       </c>
       <c r="X15" t="n">
-        <v>1042.739170367302</v>
+        <v>1015.947326915881</v>
       </c>
       <c r="Y15" t="n">
-        <v>837.0107345909523</v>
+        <v>810.218891139531</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>617.2102128798003</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="C16" t="n">
-        <v>617.2102128798003</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="D16" t="n">
-        <v>617.2102128798003</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="E16" t="n">
-        <v>468.7509965432355</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="F16" t="n">
-        <v>321.1156213818168</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="G16" t="n">
-        <v>205.9486405401765</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="H16" t="n">
         <v>47.06144276962452</v>
@@ -5439,49 +5439,49 @@
         <v>47.06144276962452</v>
       </c>
       <c r="K16" t="n">
-        <v>88.52550135650138</v>
+        <v>88.52550135650137</v>
       </c>
       <c r="L16" t="n">
-        <v>197.3888359084144</v>
+        <v>197.3888359084143</v>
       </c>
       <c r="M16" t="n">
         <v>322.7628580499604</v>
       </c>
       <c r="N16" t="n">
-        <v>450.2970280645392</v>
+        <v>450.2970280645391</v>
       </c>
       <c r="O16" t="n">
-        <v>552.7588795211516</v>
+        <v>552.7588795211515</v>
       </c>
       <c r="P16" t="n">
-        <v>617.2102128798003</v>
+        <v>617.2102128798002</v>
       </c>
       <c r="Q16" t="n">
-        <v>617.2102128798003</v>
+        <v>617.2102128798002</v>
       </c>
       <c r="R16" t="n">
-        <v>617.2102128798003</v>
+        <v>617.2102128798002</v>
       </c>
       <c r="S16" t="n">
-        <v>617.2102128798003</v>
+        <v>617.2102128798002</v>
       </c>
       <c r="T16" t="n">
-        <v>617.2102128798003</v>
+        <v>617.2102128798002</v>
       </c>
       <c r="U16" t="n">
-        <v>617.2102128798003</v>
+        <v>336.0438436660039</v>
       </c>
       <c r="V16" t="n">
-        <v>617.2102128798003</v>
+        <v>336.0438436660039</v>
       </c>
       <c r="W16" t="n">
-        <v>617.2102128798003</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="X16" t="n">
-        <v>617.2102128798003</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="Y16" t="n">
-        <v>617.2102128798003</v>
+        <v>47.06144276962452</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1593.71758326492</v>
+        <v>904.949565101793</v>
       </c>
       <c r="C17" t="n">
-        <v>1593.71758326492</v>
+        <v>534.2575492644772</v>
       </c>
       <c r="D17" t="n">
-        <v>1593.71758326492</v>
+        <v>174.0507485022566</v>
       </c>
       <c r="E17" t="n">
-        <v>1206.729668360589</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="F17" t="n">
-        <v>795.3217254509516</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="G17" t="n">
-        <v>377.3746449352783</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="H17" t="n">
         <v>47.06144276962452</v>
@@ -5515,19 +5515,19 @@
         <v>47.06144276962452</v>
       </c>
       <c r="J17" t="n">
-        <v>137.7570291265965</v>
+        <v>137.757029126597</v>
       </c>
       <c r="K17" t="n">
         <v>395.9627954019088</v>
       </c>
       <c r="L17" t="n">
-        <v>768.2589587052587</v>
+        <v>768.2589587052586</v>
       </c>
       <c r="M17" t="n">
-        <v>1197.722468029211</v>
+        <v>1197.72246802921</v>
       </c>
       <c r="N17" t="n">
-        <v>1618.61797093203</v>
+        <v>1618.617970932029</v>
       </c>
       <c r="O17" t="n">
         <v>1969.929307769078</v>
@@ -5542,25 +5542,25 @@
         <v>2353.072138481226</v>
       </c>
       <c r="S17" t="n">
-        <v>2179.49941421805</v>
+        <v>2353.072138481226</v>
       </c>
       <c r="T17" t="n">
-        <v>2179.49941421805</v>
+        <v>2353.072138481226</v>
       </c>
       <c r="U17" t="n">
-        <v>1925.569322176555</v>
+        <v>2353.072138481226</v>
       </c>
       <c r="V17" t="n">
-        <v>1593.71758326492</v>
+        <v>2021.22039956959</v>
       </c>
       <c r="W17" t="n">
-        <v>1593.71758326492</v>
+        <v>1667.149574316505</v>
       </c>
       <c r="X17" t="n">
-        <v>1593.71758326492</v>
+        <v>1292.541898426434</v>
       </c>
       <c r="Y17" t="n">
-        <v>1593.71758326492</v>
+        <v>1292.541898426434</v>
       </c>
     </row>
     <row r="18">
@@ -5597,19 +5597,19 @@
         <v>47.06144276962452</v>
       </c>
       <c r="K18" t="n">
-        <v>279.2926124030189</v>
+        <v>261.8008521287447</v>
       </c>
       <c r="L18" t="n">
-        <v>652.4056860446933</v>
+        <v>634.9139257704189</v>
       </c>
       <c r="M18" t="n">
-        <v>1140.611238452502</v>
+        <v>1123.119478178228</v>
       </c>
       <c r="N18" t="n">
-        <v>1657.136871135018</v>
+        <v>1639.645110860744</v>
       </c>
       <c r="O18" t="n">
-        <v>2062.028894873054</v>
+        <v>2044.537134598779</v>
       </c>
       <c r="P18" t="n">
         <v>2353.072138481226</v>
@@ -5618,13 +5618,13 @@
         <v>2353.072138481226</v>
       </c>
       <c r="R18" t="n">
-        <v>2293.900601640849</v>
+        <v>2320.69244509227</v>
       </c>
       <c r="S18" t="n">
-        <v>2134.145883571922</v>
+        <v>2160.937727023343</v>
       </c>
       <c r="T18" t="n">
-        <v>1936.12774719075</v>
+        <v>1962.919590642171</v>
       </c>
       <c r="U18" t="n">
         <v>1736.03180410279</v>
@@ -5676,40 +5676,40 @@
         <v>47.06144276962452</v>
       </c>
       <c r="K19" t="n">
-        <v>88.52550135650138</v>
+        <v>88.52550135650137</v>
       </c>
       <c r="L19" t="n">
-        <v>197.3888359084144</v>
+        <v>197.3888359084143</v>
       </c>
       <c r="M19" t="n">
         <v>322.7628580499604</v>
       </c>
       <c r="N19" t="n">
-        <v>450.2970280645392</v>
+        <v>450.2970280645391</v>
       </c>
       <c r="O19" t="n">
-        <v>552.7588795211516</v>
+        <v>552.7588795211515</v>
       </c>
       <c r="P19" t="n">
-        <v>617.2102128798003</v>
+        <v>617.2102128798002</v>
       </c>
       <c r="Q19" t="n">
-        <v>617.2102128798003</v>
+        <v>617.2102128798002</v>
       </c>
       <c r="R19" t="n">
-        <v>617.2102128798003</v>
+        <v>617.2102128798002</v>
       </c>
       <c r="S19" t="n">
-        <v>617.2102128798003</v>
+        <v>617.2102128798002</v>
       </c>
       <c r="T19" t="n">
-        <v>617.2102128798003</v>
+        <v>617.2102128798002</v>
       </c>
       <c r="U19" t="n">
-        <v>328.295393969672</v>
+        <v>336.0438436660039</v>
       </c>
       <c r="V19" t="n">
-        <v>72.80413026569306</v>
+        <v>336.0438436660039</v>
       </c>
       <c r="W19" t="n">
         <v>47.06144276962452</v>
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>582.7148101237285</v>
+        <v>1164.948174273492</v>
       </c>
       <c r="C20" t="n">
-        <v>212.0227942864127</v>
+        <v>794.256158436176</v>
       </c>
       <c r="D20" t="n">
-        <v>212.0227942864127</v>
+        <v>434.0493576739553</v>
       </c>
       <c r="E20" t="n">
-        <v>212.0227942864127</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="F20" t="n">
-        <v>212.0227942864127</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="G20" t="n">
-        <v>212.0227942864127</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="H20" t="n">
-        <v>212.0227942864127</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="I20" t="n">
         <v>47.06144276962452</v>
       </c>
       <c r="J20" t="n">
-        <v>137.7570291265968</v>
+        <v>137.757029126597</v>
       </c>
       <c r="K20" t="n">
-        <v>395.9627954019087</v>
+        <v>395.962795401909</v>
       </c>
       <c r="L20" t="n">
-        <v>768.2589587052585</v>
+        <v>768.2589587052587</v>
       </c>
       <c r="M20" t="n">
         <v>1197.72246802921</v>
@@ -5776,28 +5776,28 @@
         <v>2353.072138481226</v>
       </c>
       <c r="R20" t="n">
-        <v>2300.505934655442</v>
+        <v>2353.072138481226</v>
       </c>
       <c r="S20" t="n">
-        <v>2117.58533731995</v>
+        <v>2353.072138481226</v>
       </c>
       <c r="T20" t="n">
-        <v>1897.175142220014</v>
+        <v>2353.072138481226</v>
       </c>
       <c r="U20" t="n">
-        <v>1643.24505017852</v>
+        <v>2353.072138481226</v>
       </c>
       <c r="V20" t="n">
-        <v>1311.393311266884</v>
+        <v>2021.22039956959</v>
       </c>
       <c r="W20" t="n">
-        <v>957.3224860137987</v>
+        <v>1927.148183488203</v>
       </c>
       <c r="X20" t="n">
-        <v>582.7148101237285</v>
+        <v>1552.540507598133</v>
       </c>
       <c r="Y20" t="n">
-        <v>582.7148101237285</v>
+        <v>1552.540507598133</v>
       </c>
     </row>
     <row r="21">
@@ -5855,13 +5855,13 @@
         <v>2353.072138481226</v>
       </c>
       <c r="R21" t="n">
-        <v>2293.900601640849</v>
+        <v>2320.69244509227</v>
       </c>
       <c r="S21" t="n">
-        <v>2134.145883571922</v>
+        <v>2160.937727023343</v>
       </c>
       <c r="T21" t="n">
-        <v>1936.12774719075</v>
+        <v>1962.919590642171</v>
       </c>
       <c r="U21" t="n">
         <v>1736.03180410279</v>
@@ -5940,22 +5940,22 @@
         <v>617.2102128798002</v>
       </c>
       <c r="T22" t="n">
-        <v>388.6760460394732</v>
+        <v>617.2102128798002</v>
       </c>
       <c r="U22" t="n">
-        <v>388.6760460394732</v>
+        <v>328.2953939696719</v>
       </c>
       <c r="V22" t="n">
-        <v>388.6760460394732</v>
+        <v>328.2953939696719</v>
       </c>
       <c r="W22" t="n">
-        <v>99.69364514309393</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="X22" t="n">
-        <v>99.69364514309393</v>
+        <v>47.06144276962452</v>
       </c>
       <c r="Y22" t="n">
-        <v>99.69364514309393</v>
+        <v>47.06144276962452</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1169.691492467169</v>
+        <v>1210.021544963841</v>
       </c>
       <c r="C23" t="n">
-        <v>1169.691492467169</v>
+        <v>1210.021544963841</v>
       </c>
       <c r="D23" t="n">
-        <v>1169.691492467169</v>
+        <v>1210.021544963841</v>
       </c>
       <c r="E23" t="n">
-        <v>782.7035775628383</v>
+        <v>1210.021544963841</v>
       </c>
       <c r="F23" t="n">
-        <v>371.295634653201</v>
+        <v>798.6136020542033</v>
       </c>
       <c r="G23" t="n">
-        <v>371.295634653201</v>
+        <v>380.9492113818483</v>
       </c>
       <c r="H23" t="n">
         <v>53.53110657407782</v>
@@ -5992,7 +5992,7 @@
         <v>167.7421803733075</v>
       </c>
       <c r="K23" t="n">
-        <v>461.191566563293</v>
+        <v>461.1915665632931</v>
       </c>
       <c r="L23" t="n">
         <v>877.2105568248485</v>
@@ -6031,10 +6031,10 @@
         <v>2322.484503450806</v>
       </c>
       <c r="X23" t="n">
-        <v>1947.876827560736</v>
+        <v>1988.206880057407</v>
       </c>
       <c r="Y23" t="n">
-        <v>1557.283825791811</v>
+        <v>1597.613878288482</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>979.4794979670869</v>
+        <v>979.4794979670866</v>
       </c>
       <c r="C24" t="n">
-        <v>806.7263828889039</v>
+        <v>806.7263828889038</v>
       </c>
       <c r="D24" t="n">
         <v>659.1380762478477</v>
       </c>
       <c r="E24" t="n">
-        <v>501.5285472507023</v>
+        <v>501.5285472507024</v>
       </c>
       <c r="F24" t="n">
-        <v>356.5727572673192</v>
+        <v>356.5727572673193</v>
       </c>
       <c r="G24" t="n">
-        <v>219.9143827707591</v>
+        <v>219.9143827707593</v>
       </c>
       <c r="H24" t="n">
-        <v>115.4714096068665</v>
+        <v>115.4714096068667</v>
       </c>
       <c r="I24" t="n">
         <v>53.53110657407782</v>
@@ -6110,7 +6110,7 @@
         <v>1558.777383459419</v>
       </c>
       <c r="X24" t="n">
-        <v>1352.250484864997</v>
+        <v>1352.250484864996</v>
       </c>
       <c r="Y24" t="n">
         <v>1146.522049088647</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>545.7917462553745</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="C25" t="n">
-        <v>545.7917462553745</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="D25" t="n">
-        <v>395.2810730083852</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="E25" t="n">
-        <v>359.1820328891704</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="F25" t="n">
-        <v>359.1820328891704</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="G25" t="n">
-        <v>190.2159809393632</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="H25" t="n">
-        <v>190.2159809393632</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="I25" t="n">
         <v>53.53110657407782</v>
@@ -6177,22 +6177,22 @@
         <v>727.6944649328329</v>
       </c>
       <c r="T25" t="n">
-        <v>727.6944649328329</v>
+        <v>563.4717639025463</v>
       </c>
       <c r="U25" t="n">
-        <v>727.6944649328329</v>
+        <v>563.4717639025463</v>
       </c>
       <c r="V25" t="n">
-        <v>727.6944649328329</v>
+        <v>563.4717639025463</v>
       </c>
       <c r="W25" t="n">
-        <v>727.6944649328329</v>
+        <v>274.489363006167</v>
       </c>
       <c r="X25" t="n">
-        <v>727.6944649328329</v>
+        <v>274.489363006167</v>
       </c>
       <c r="Y25" t="n">
-        <v>727.6944649328329</v>
+        <v>53.53110657407782</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1212.447429445603</v>
+        <v>1692.181930734086</v>
       </c>
       <c r="C26" t="n">
-        <v>1212.447429445603</v>
+        <v>1692.181930734086</v>
       </c>
       <c r="D26" t="n">
-        <v>852.2406286833825</v>
+        <v>1331.975129971865</v>
       </c>
       <c r="E26" t="n">
-        <v>852.2406286833825</v>
+        <v>944.9872150675342</v>
       </c>
       <c r="F26" t="n">
-        <v>852.2406286833825</v>
+        <v>533.5792721578969</v>
       </c>
       <c r="G26" t="n">
-        <v>434.5762380110275</v>
+        <v>115.9148814855419</v>
       </c>
       <c r="H26" t="n">
-        <v>107.1581332032571</v>
+        <v>115.9148814855419</v>
       </c>
       <c r="I26" t="n">
         <v>53.53110657407782</v>
@@ -6229,7 +6229,7 @@
         <v>167.7421803733075</v>
       </c>
       <c r="K26" t="n">
-        <v>461.1915665632931</v>
+        <v>461.191566563293</v>
       </c>
       <c r="L26" t="n">
         <v>877.2105568248485</v>
@@ -6256,22 +6256,22 @@
         <v>2676.555328703891</v>
       </c>
       <c r="T26" t="n">
-        <v>2676.555328703891</v>
+        <v>2457.382608393081</v>
       </c>
       <c r="U26" t="n">
-        <v>2676.555328703891</v>
+        <v>2457.382608393081</v>
       </c>
       <c r="V26" t="n">
-        <v>2344.703589792255</v>
+        <v>2457.382608393081</v>
       </c>
       <c r="W26" t="n">
-        <v>1990.63276453917</v>
+        <v>2457.382608393081</v>
       </c>
       <c r="X26" t="n">
-        <v>1990.63276453917</v>
+        <v>2082.774932503011</v>
       </c>
       <c r="Y26" t="n">
-        <v>1600.039762770245</v>
+        <v>1692.181930734086</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>53.53110657407782</v>
       </c>
       <c r="J27" t="n">
-        <v>53.53110657407782</v>
+        <v>129.3364848865958</v>
       </c>
       <c r="K27" t="n">
-        <v>309.7001854454658</v>
+        <v>385.5055637579837</v>
       </c>
       <c r="L27" t="n">
-        <v>715.0007321791048</v>
+        <v>790.8061104916228</v>
       </c>
       <c r="M27" t="n">
-        <v>1240.767547500212</v>
+        <v>1316.57292581273</v>
       </c>
       <c r="N27" t="n">
-        <v>1795.848577958314</v>
+        <v>1725.940263988108</v>
       </c>
       <c r="O27" t="n">
-        <v>2236.011258252654</v>
+        <v>2166.102944282447</v>
       </c>
       <c r="P27" t="n">
-        <v>2572.854073537544</v>
+        <v>2502.945759567338</v>
       </c>
       <c r="Q27" t="n">
         <v>2676.555328703891</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>471.001322142605</v>
+        <v>669.1024232688578</v>
       </c>
       <c r="C28" t="n">
-        <v>471.001322142605</v>
+        <v>669.1024232688578</v>
       </c>
       <c r="D28" t="n">
-        <v>471.001322142605</v>
+        <v>518.5917500218686</v>
       </c>
       <c r="E28" t="n">
-        <v>471.001322142605</v>
+        <v>370.1325336853038</v>
       </c>
       <c r="F28" t="n">
-        <v>471.001322142605</v>
+        <v>222.497158523885</v>
       </c>
       <c r="G28" t="n">
-        <v>347.9757675892945</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="H28" t="n">
-        <v>190.2159809393632</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="I28" t="n">
         <v>53.53110657407782</v>
@@ -6405,31 +6405,31 @@
         <v>727.6944649328329</v>
       </c>
       <c r="Q28" t="n">
-        <v>698.9936860926541</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="R28" t="n">
-        <v>698.9936860926541</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="S28" t="n">
-        <v>698.9936860926541</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="T28" t="n">
-        <v>471.001322142605</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="U28" t="n">
-        <v>471.001322142605</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="V28" t="n">
-        <v>471.001322142605</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="W28" t="n">
-        <v>471.001322142605</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="X28" t="n">
-        <v>471.001322142605</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="Y28" t="n">
-        <v>471.001322142605</v>
+        <v>669.1024232688578</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1751.072411200432</v>
+        <v>1269.591355060401</v>
       </c>
       <c r="C29" t="n">
-        <v>1751.072411200432</v>
+        <v>1269.591355060401</v>
       </c>
       <c r="D29" t="n">
-        <v>1751.072411200432</v>
+        <v>1269.591355060401</v>
       </c>
       <c r="E29" t="n">
-        <v>1364.084496296101</v>
+        <v>882.6034401560701</v>
       </c>
       <c r="F29" t="n">
-        <v>952.6765533864634</v>
+        <v>471.1954972464329</v>
       </c>
       <c r="G29" t="n">
-        <v>535.0121627141084</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="H29" t="n">
-        <v>207.594057906338</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="I29" t="n">
         <v>53.53110657407782</v>
       </c>
       <c r="J29" t="n">
-        <v>167.7421803733077</v>
+        <v>167.7421803733075</v>
       </c>
       <c r="K29" t="n">
-        <v>461.1915665632932</v>
+        <v>461.191566563293</v>
       </c>
       <c r="L29" t="n">
-        <v>877.2105568248486</v>
+        <v>877.2105568248485</v>
       </c>
       <c r="M29" t="n">
         <v>1355.324135626645</v>
@@ -6487,28 +6487,28 @@
         <v>2676.555328703891</v>
       </c>
       <c r="R29" t="n">
-        <v>2620.010037624015</v>
+        <v>2641.557086354848</v>
       </c>
       <c r="S29" t="n">
-        <v>2443.531235093138</v>
+        <v>2641.557086354848</v>
       </c>
       <c r="T29" t="n">
-        <v>2224.358514782328</v>
+        <v>2422.384366044038</v>
       </c>
       <c r="U29" t="n">
-        <v>1970.451037928299</v>
+        <v>2422.384366044038</v>
       </c>
       <c r="V29" t="n">
-        <v>1751.072411200432</v>
+        <v>2422.384366044038</v>
       </c>
       <c r="W29" t="n">
-        <v>1751.072411200432</v>
+        <v>2422.384366044038</v>
       </c>
       <c r="X29" t="n">
-        <v>1751.072411200432</v>
+        <v>2047.776690153968</v>
       </c>
       <c r="Y29" t="n">
-        <v>1751.072411200432</v>
+        <v>1657.183688385042</v>
       </c>
     </row>
     <row r="30">
@@ -6536,31 +6536,31 @@
         <v>219.9143827707593</v>
       </c>
       <c r="H30" t="n">
-        <v>115.4714096068667</v>
+        <v>115.4714096068661</v>
       </c>
       <c r="I30" t="n">
         <v>53.53110657407782</v>
       </c>
       <c r="J30" t="n">
-        <v>53.53110657407782</v>
+        <v>129.3364848865958</v>
       </c>
       <c r="K30" t="n">
-        <v>309.7001854454658</v>
+        <v>385.5055637579837</v>
       </c>
       <c r="L30" t="n">
-        <v>715.0007321791048</v>
+        <v>790.8061104916228</v>
       </c>
       <c r="M30" t="n">
-        <v>1240.767547500212</v>
+        <v>1316.57292581273</v>
       </c>
       <c r="N30" t="n">
-        <v>1795.848577958314</v>
+        <v>1725.940263988108</v>
       </c>
       <c r="O30" t="n">
-        <v>2236.011258252654</v>
+        <v>2166.102944282447</v>
       </c>
       <c r="P30" t="n">
-        <v>2572.854073537544</v>
+        <v>2502.945759567338</v>
       </c>
       <c r="Q30" t="n">
         <v>2676.555328703891</v>
@@ -6651,10 +6651,10 @@
         <v>727.6944649328329</v>
       </c>
       <c r="T31" t="n">
-        <v>499.7021009827838</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="U31" t="n">
-        <v>342.5135074704572</v>
+        <v>598.0047711744362</v>
       </c>
       <c r="V31" t="n">
         <v>342.5135074704572</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1228.87542798808</v>
+        <v>1836.766181457686</v>
       </c>
       <c r="C32" t="n">
-        <v>858.1834121507636</v>
+        <v>1466.07416562037</v>
       </c>
       <c r="D32" t="n">
-        <v>858.1834121507636</v>
+        <v>1210.021544963841</v>
       </c>
       <c r="E32" t="n">
-        <v>471.1954972464329</v>
+        <v>1210.021544963841</v>
       </c>
       <c r="F32" t="n">
-        <v>471.1954972464329</v>
+        <v>798.6136020542033</v>
       </c>
       <c r="G32" t="n">
-        <v>53.53110657407782</v>
+        <v>380.9492113818483</v>
       </c>
       <c r="H32" t="n">
         <v>53.53110657407782</v>
@@ -6703,10 +6703,10 @@
         <v>167.7421803733075</v>
       </c>
       <c r="K32" t="n">
-        <v>461.191566563293</v>
+        <v>461.1915665632931</v>
       </c>
       <c r="L32" t="n">
-        <v>877.2105568248484</v>
+        <v>877.2105568248485</v>
       </c>
       <c r="M32" t="n">
         <v>1355.324135626645</v>
@@ -6724,28 +6724,28 @@
         <v>2676.555328703891</v>
       </c>
       <c r="R32" t="n">
-        <v>2676.555328703891</v>
+        <v>2620.010037624015</v>
       </c>
       <c r="S32" t="n">
-        <v>2676.555328703891</v>
+        <v>2443.531235093138</v>
       </c>
       <c r="T32" t="n">
-        <v>2457.382608393081</v>
+        <v>2224.358514782328</v>
       </c>
       <c r="U32" t="n">
-        <v>2457.382608393081</v>
+        <v>2224.358514782328</v>
       </c>
       <c r="V32" t="n">
-        <v>2381.668438971716</v>
+        <v>2224.358514782328</v>
       </c>
       <c r="W32" t="n">
-        <v>2381.668438971716</v>
+        <v>2224.358514782328</v>
       </c>
       <c r="X32" t="n">
-        <v>2007.060763081646</v>
+        <v>2224.358514782328</v>
       </c>
       <c r="Y32" t="n">
-        <v>1616.467761312721</v>
+        <v>2224.358514782328</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>979.4794979670866</v>
+        <v>979.4794979670869</v>
       </c>
       <c r="C33" t="n">
-        <v>806.7263828889038</v>
+        <v>806.7263828889039</v>
       </c>
       <c r="D33" t="n">
         <v>659.1380762478477</v>
       </c>
       <c r="E33" t="n">
-        <v>501.5285472507024</v>
+        <v>501.5285472507023</v>
       </c>
       <c r="F33" t="n">
-        <v>356.5727572673193</v>
+        <v>356.5727572673192</v>
       </c>
       <c r="G33" t="n">
-        <v>219.9143827707593</v>
+        <v>219.9143827707587</v>
       </c>
       <c r="H33" t="n">
-        <v>115.4714096068667</v>
+        <v>115.4714096068661</v>
       </c>
       <c r="I33" t="n">
         <v>53.53110657407782</v>
       </c>
       <c r="J33" t="n">
-        <v>53.53110657407782</v>
+        <v>129.3364848865958</v>
       </c>
       <c r="K33" t="n">
-        <v>309.7001854454658</v>
+        <v>385.5055637579837</v>
       </c>
       <c r="L33" t="n">
-        <v>715.0007321791048</v>
+        <v>790.8061104916228</v>
       </c>
       <c r="M33" t="n">
-        <v>1240.767547500212</v>
+        <v>1316.57292581273</v>
       </c>
       <c r="N33" t="n">
-        <v>1795.848577958314</v>
+        <v>1725.940263988108</v>
       </c>
       <c r="O33" t="n">
-        <v>2236.011258252654</v>
+        <v>2166.102944282447</v>
       </c>
       <c r="P33" t="n">
-        <v>2572.854073537544</v>
+        <v>2502.945759567338</v>
       </c>
       <c r="Q33" t="n">
         <v>2676.555328703891</v>
@@ -6821,7 +6821,7 @@
         <v>1558.777383459419</v>
       </c>
       <c r="X33" t="n">
-        <v>1352.250484864996</v>
+        <v>1352.250484864997</v>
       </c>
       <c r="Y33" t="n">
         <v>1146.522049088647</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="C34" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="D34" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="E34" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="F34" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="G34" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="H34" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="I34" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J34" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="K34" t="n">
-        <v>2058.295281151353</v>
+        <v>109.4344173802943</v>
       </c>
       <c r="L34" t="n">
-        <v>2185.635887283475</v>
+        <v>236.775023512417</v>
       </c>
       <c r="M34" t="n">
-        <v>2330.49160160171</v>
+        <v>381.6307378306511</v>
       </c>
       <c r="N34" t="n">
-        <v>2477.044232696738</v>
+        <v>528.1833689256794</v>
       </c>
       <c r="O34" t="n">
-        <v>2597.072711188271</v>
+        <v>648.2118474172129</v>
       </c>
       <c r="P34" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328331</v>
       </c>
       <c r="Q34" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328331</v>
       </c>
       <c r="R34" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328331</v>
       </c>
       <c r="S34" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328331</v>
       </c>
       <c r="T34" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328331</v>
       </c>
       <c r="U34" t="n">
-        <v>2546.865634945495</v>
+        <v>438.7865626553466</v>
       </c>
       <c r="V34" t="n">
-        <v>2291.374371241516</v>
+        <v>342.5135074704572</v>
       </c>
       <c r="W34" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="X34" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="Y34" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407782</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1783.861107154882</v>
+        <v>1692.181930734086</v>
       </c>
       <c r="C35" t="n">
-        <v>1783.861107154882</v>
+        <v>1692.181930734086</v>
       </c>
       <c r="D35" t="n">
-        <v>1423.654306392661</v>
+        <v>1331.975129971865</v>
       </c>
       <c r="E35" t="n">
-        <v>1036.66639148833</v>
+        <v>944.9872150675342</v>
       </c>
       <c r="F35" t="n">
-        <v>625.258448578693</v>
+        <v>533.5792721578969</v>
       </c>
       <c r="G35" t="n">
-        <v>207.594057906338</v>
+        <v>115.9148814855419</v>
       </c>
       <c r="H35" t="n">
-        <v>207.594057906338</v>
+        <v>115.9148814855419</v>
       </c>
       <c r="I35" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J35" t="n">
         <v>167.7421803733075</v>
       </c>
       <c r="K35" t="n">
-        <v>461.1915665632929</v>
+        <v>461.191566563293</v>
       </c>
       <c r="L35" t="n">
-        <v>877.2105568248483</v>
+        <v>877.2105568248485</v>
       </c>
       <c r="M35" t="n">
         <v>1355.324135626645</v>
       </c>
       <c r="N35" t="n">
-        <v>1825.656916993542</v>
+        <v>1825.656916993543</v>
       </c>
       <c r="O35" t="n">
         <v>2223.65047400805</v>
       </c>
       <c r="P35" t="n">
-        <v>2526.389973845557</v>
+        <v>2526.389973845558</v>
       </c>
       <c r="Q35" t="n">
         <v>2676.555328703891</v>
@@ -6967,22 +6967,22 @@
         <v>2676.555328703891</v>
       </c>
       <c r="T35" t="n">
-        <v>2676.555328703891</v>
+        <v>2457.382608393081</v>
       </c>
       <c r="U35" t="n">
-        <v>2469.783671319603</v>
+        <v>2457.382608393081</v>
       </c>
       <c r="V35" t="n">
-        <v>2137.931932407967</v>
+        <v>2457.382608393081</v>
       </c>
       <c r="W35" t="n">
-        <v>1783.861107154882</v>
+        <v>2457.382608393081</v>
       </c>
       <c r="X35" t="n">
-        <v>1783.861107154882</v>
+        <v>2082.774932503011</v>
       </c>
       <c r="Y35" t="n">
-        <v>1783.861107154882</v>
+        <v>1692.181930734086</v>
       </c>
     </row>
     <row r="36">
@@ -6992,70 +6992,70 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>979.4794979670861</v>
+        <v>979.4794979670866</v>
       </c>
       <c r="C36" t="n">
-        <v>806.7263828889033</v>
+        <v>806.7263828889038</v>
       </c>
       <c r="D36" t="n">
-        <v>659.1380762478473</v>
+        <v>659.1380762478477</v>
       </c>
       <c r="E36" t="n">
-        <v>501.528547250702</v>
+        <v>501.5285472507024</v>
       </c>
       <c r="F36" t="n">
-        <v>356.5727572673188</v>
+        <v>356.5727572673193</v>
       </c>
       <c r="G36" t="n">
-        <v>219.9143827707589</v>
+        <v>219.9143827707593</v>
       </c>
       <c r="H36" t="n">
-        <v>115.4714096068663</v>
+        <v>115.4714096068667</v>
       </c>
       <c r="I36" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J36" t="n">
-        <v>53.53110657407781</v>
+        <v>129.3364848865958</v>
       </c>
       <c r="K36" t="n">
-        <v>309.7001854454657</v>
+        <v>385.5055637579837</v>
       </c>
       <c r="L36" t="n">
-        <v>715.0007321791047</v>
+        <v>790.8061104916228</v>
       </c>
       <c r="M36" t="n">
-        <v>1240.767547500212</v>
+        <v>1316.57292581273</v>
       </c>
       <c r="N36" t="n">
-        <v>1795.848577958314</v>
+        <v>1871.653956270832</v>
       </c>
       <c r="O36" t="n">
-        <v>2236.011258252653</v>
+        <v>2311.816636565171</v>
       </c>
       <c r="P36" t="n">
-        <v>2572.854073537543</v>
+        <v>2648.659451850061</v>
       </c>
       <c r="Q36" t="n">
         <v>2676.555328703891</v>
       </c>
       <c r="R36" t="n">
-        <v>2626.774708455267</v>
+        <v>2626.774708455268</v>
       </c>
       <c r="S36" t="n">
-        <v>2469.829437388747</v>
+        <v>2469.829437388748</v>
       </c>
       <c r="T36" t="n">
-        <v>2272.420954324036</v>
+        <v>2272.420954324037</v>
       </c>
       <c r="U36" t="n">
-        <v>2045.543118600484</v>
+        <v>2045.543118600485</v>
       </c>
       <c r="V36" t="n">
-        <v>1811.291875126085</v>
+        <v>1811.291875126086</v>
       </c>
       <c r="W36" t="n">
-        <v>1558.777383459418</v>
+        <v>1558.777383459419</v>
       </c>
       <c r="X36" t="n">
         <v>1352.250484864996</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2205.670209130053</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="C37" t="n">
-        <v>2171.358022294943</v>
+        <v>558.6676437902044</v>
       </c>
       <c r="D37" t="n">
-        <v>2171.358022294943</v>
+        <v>408.1569705432151</v>
       </c>
       <c r="E37" t="n">
-        <v>2171.358022294943</v>
+        <v>347.9757675892945</v>
       </c>
       <c r="F37" t="n">
-        <v>2171.358022294943</v>
+        <v>347.9757675892945</v>
       </c>
       <c r="G37" t="n">
-        <v>2002.391970345136</v>
+        <v>347.9757675892945</v>
       </c>
       <c r="H37" t="n">
-        <v>2002.391970345136</v>
+        <v>190.2159809393632</v>
       </c>
       <c r="I37" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J37" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="K37" t="n">
-        <v>2058.295281151352</v>
+        <v>109.4344173802943</v>
       </c>
       <c r="L37" t="n">
-        <v>2185.635887283475</v>
+        <v>236.775023512417</v>
       </c>
       <c r="M37" t="n">
-        <v>2330.491601601709</v>
+        <v>381.630737830651</v>
       </c>
       <c r="N37" t="n">
-        <v>2477.044232696737</v>
+        <v>528.1833689256792</v>
       </c>
       <c r="O37" t="n">
-        <v>2597.072711188271</v>
+        <v>648.2118474172128</v>
       </c>
       <c r="P37" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="Q37" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="R37" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="S37" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="T37" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="U37" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="V37" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="W37" t="n">
-        <v>2387.572927807511</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="X37" t="n">
-        <v>2387.572927807511</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="Y37" t="n">
-        <v>2387.572927807511</v>
+        <v>727.6944649328329</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1498.835942885716</v>
+        <v>1242.810240918291</v>
       </c>
       <c r="C38" t="n">
-        <v>1128.1439270484</v>
+        <v>1242.810240918291</v>
       </c>
       <c r="D38" t="n">
-        <v>767.9371262861791</v>
+        <v>882.6034401560701</v>
       </c>
       <c r="E38" t="n">
-        <v>380.9492113818483</v>
+        <v>882.6034401560701</v>
       </c>
       <c r="F38" t="n">
-        <v>380.9492113818483</v>
+        <v>471.1954972464329</v>
       </c>
       <c r="G38" t="n">
-        <v>380.9492113818483</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="H38" t="n">
         <v>53.53110657407782</v>
@@ -7174,13 +7174,13 @@
         <v>53.53110657407782</v>
       </c>
       <c r="J38" t="n">
-        <v>167.7421803733077</v>
+        <v>167.7421803733075</v>
       </c>
       <c r="K38" t="n">
-        <v>461.1915665632935</v>
+        <v>461.1915665632932</v>
       </c>
       <c r="L38" t="n">
-        <v>877.2105568248487</v>
+        <v>877.2105568248485</v>
       </c>
       <c r="M38" t="n">
         <v>1355.324135626646</v>
@@ -7198,28 +7198,28 @@
         <v>2676.555328703891</v>
       </c>
       <c r="R38" t="n">
-        <v>2620.010037624015</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="S38" t="n">
-        <v>2615.106777353512</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="T38" t="n">
-        <v>2615.106777353512</v>
+        <v>2457.382608393081</v>
       </c>
       <c r="U38" t="n">
-        <v>2615.106777353512</v>
+        <v>2203.475131539052</v>
       </c>
       <c r="V38" t="n">
-        <v>2615.106777353512</v>
+        <v>1971.488742061446</v>
       </c>
       <c r="W38" t="n">
-        <v>2261.035952100427</v>
+        <v>1617.417916808361</v>
       </c>
       <c r="X38" t="n">
-        <v>1886.428276210357</v>
+        <v>1242.810240918291</v>
       </c>
       <c r="Y38" t="n">
-        <v>1886.428276210357</v>
+        <v>1242.810240918291</v>
       </c>
     </row>
     <row r="39">
@@ -7244,34 +7244,34 @@
         <v>356.5727572673193</v>
       </c>
       <c r="G39" t="n">
-        <v>219.9143827707593</v>
+        <v>219.9143827707587</v>
       </c>
       <c r="H39" t="n">
-        <v>115.4714096068667</v>
+        <v>115.4714096068661</v>
       </c>
       <c r="I39" t="n">
         <v>53.53110657407782</v>
       </c>
       <c r="J39" t="n">
-        <v>129.3364848865957</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="K39" t="n">
-        <v>385.5055637579836</v>
+        <v>309.7001854454658</v>
       </c>
       <c r="L39" t="n">
-        <v>790.8061104916227</v>
+        <v>715.0007321791048</v>
       </c>
       <c r="M39" t="n">
-        <v>1316.57292581273</v>
+        <v>1240.767547500212</v>
       </c>
       <c r="N39" t="n">
-        <v>1871.653956270832</v>
+        <v>1795.848577958314</v>
       </c>
       <c r="O39" t="n">
-        <v>2311.816636565171</v>
+        <v>2236.011258252654</v>
       </c>
       <c r="P39" t="n">
-        <v>2648.659451850061</v>
+        <v>2572.854073537544</v>
       </c>
       <c r="Q39" t="n">
         <v>2676.555328703891</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2676.555328703891</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="C40" t="n">
-        <v>2507.528507561262</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="D40" t="n">
-        <v>2507.528507561262</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="E40" t="n">
-        <v>2507.528507561262</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="F40" t="n">
-        <v>2507.528507561262</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="G40" t="n">
-        <v>2338.562455611455</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="H40" t="n">
-        <v>2180.802668961524</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="I40" t="n">
-        <v>2044.117794596239</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J40" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="K40" t="n">
-        <v>2058.295281151353</v>
+        <v>109.4344173802943</v>
       </c>
       <c r="L40" t="n">
-        <v>2185.635887283475</v>
+        <v>236.775023512417</v>
       </c>
       <c r="M40" t="n">
-        <v>2330.49160160171</v>
+        <v>381.630737830651</v>
       </c>
       <c r="N40" t="n">
-        <v>2477.044232696738</v>
+        <v>528.1833689256792</v>
       </c>
       <c r="O40" t="n">
-        <v>2597.072711188271</v>
+        <v>648.2118474172128</v>
       </c>
       <c r="P40" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="Q40" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="R40" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="S40" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="T40" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="U40" t="n">
-        <v>2676.555328703891</v>
+        <v>598.0047711744362</v>
       </c>
       <c r="V40" t="n">
-        <v>2676.555328703891</v>
+        <v>342.5135074704572</v>
       </c>
       <c r="W40" t="n">
-        <v>2676.555328703891</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="X40" t="n">
-        <v>2676.555328703891</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="Y40" t="n">
-        <v>2676.555328703891</v>
+        <v>53.53110657407782</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>792.3571542914856</v>
+        <v>1269.591355060401</v>
       </c>
       <c r="C41" t="n">
-        <v>792.3571542914856</v>
+        <v>1269.591355060401</v>
       </c>
       <c r="D41" t="n">
-        <v>792.3571542914856</v>
+        <v>1269.591355060401</v>
       </c>
       <c r="E41" t="n">
-        <v>792.3571542914856</v>
+        <v>882.6034401560701</v>
       </c>
       <c r="F41" t="n">
-        <v>380.9492113818483</v>
+        <v>471.1954972464329</v>
       </c>
       <c r="G41" t="n">
-        <v>380.9492113818483</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="H41" t="n">
         <v>53.53110657407782</v>
@@ -7435,28 +7435,28 @@
         <v>2676.555328703891</v>
       </c>
       <c r="R41" t="n">
-        <v>2620.010037624015</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="S41" t="n">
-        <v>2443.531235093138</v>
+        <v>2641.557086354848</v>
       </c>
       <c r="T41" t="n">
-        <v>2224.358514782328</v>
+        <v>2422.384366044038</v>
       </c>
       <c r="U41" t="n">
-        <v>2224.358514782328</v>
+        <v>2422.384366044038</v>
       </c>
       <c r="V41" t="n">
-        <v>1892.506775870692</v>
+        <v>2422.384366044038</v>
       </c>
       <c r="W41" t="n">
-        <v>1538.435950617607</v>
+        <v>2422.384366044038</v>
       </c>
       <c r="X41" t="n">
-        <v>1182.950156060411</v>
+        <v>2047.776690153968</v>
       </c>
       <c r="Y41" t="n">
-        <v>792.3571542914856</v>
+        <v>1657.183688385042</v>
       </c>
     </row>
     <row r="42">
@@ -7484,31 +7484,31 @@
         <v>219.9143827707593</v>
       </c>
       <c r="H42" t="n">
-        <v>115.4714096068661</v>
+        <v>115.4714096068667</v>
       </c>
       <c r="I42" t="n">
         <v>53.53110657407782</v>
       </c>
       <c r="J42" t="n">
-        <v>53.53110657407782</v>
+        <v>129.3364848865958</v>
       </c>
       <c r="K42" t="n">
-        <v>309.7001854454658</v>
+        <v>385.5055637579837</v>
       </c>
       <c r="L42" t="n">
-        <v>715.0007321791048</v>
+        <v>790.8061104916228</v>
       </c>
       <c r="M42" t="n">
-        <v>1240.767547500212</v>
+        <v>1316.57292581273</v>
       </c>
       <c r="N42" t="n">
-        <v>1795.848577958314</v>
+        <v>1725.940263988108</v>
       </c>
       <c r="O42" t="n">
-        <v>2236.011258252654</v>
+        <v>2166.102944282447</v>
       </c>
       <c r="P42" t="n">
-        <v>2572.854073537544</v>
+        <v>2502.945759567338</v>
       </c>
       <c r="Q42" t="n">
         <v>2676.555328703891</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>438.7120640364536</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="C43" t="n">
-        <v>438.7120640364536</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="D43" t="n">
-        <v>349.6256980720614</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="E43" t="n">
-        <v>201.1664817354965</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="F43" t="n">
         <v>53.53110657407782</v>
@@ -7599,22 +7599,22 @@
         <v>727.6944649328329</v>
       </c>
       <c r="T43" t="n">
-        <v>727.6944649328329</v>
+        <v>499.7021009827838</v>
       </c>
       <c r="U43" t="n">
-        <v>727.6944649328329</v>
+        <v>499.7021009827838</v>
       </c>
       <c r="V43" t="n">
-        <v>727.6944649328329</v>
+        <v>342.5135074704572</v>
       </c>
       <c r="W43" t="n">
-        <v>438.7120640364536</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="X43" t="n">
-        <v>438.7120640364536</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="Y43" t="n">
-        <v>438.7120640364536</v>
+        <v>53.53110657407782</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>938.4928745058744</v>
+        <v>1304.589597409444</v>
       </c>
       <c r="C44" t="n">
-        <v>567.8008586685586</v>
+        <v>1304.589597409444</v>
       </c>
       <c r="D44" t="n">
-        <v>207.594057906338</v>
+        <v>1304.589597409444</v>
       </c>
       <c r="E44" t="n">
-        <v>207.594057906338</v>
+        <v>917.6016825051133</v>
       </c>
       <c r="F44" t="n">
-        <v>207.594057906338</v>
+        <v>506.1937395954761</v>
       </c>
       <c r="G44" t="n">
-        <v>207.594057906338</v>
+        <v>88.52934892312106</v>
       </c>
       <c r="H44" t="n">
-        <v>207.594057906338</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="I44" t="n">
         <v>53.53110657407782</v>
@@ -7651,7 +7651,7 @@
         <v>167.7421803733075</v>
       </c>
       <c r="K44" t="n">
-        <v>461.1915665632931</v>
+        <v>461.191566563293</v>
       </c>
       <c r="L44" t="n">
         <v>877.2105568248485</v>
@@ -7681,19 +7681,19 @@
         <v>2457.382608393081</v>
       </c>
       <c r="U44" t="n">
-        <v>2203.475131539052</v>
+        <v>2457.382608393081</v>
       </c>
       <c r="V44" t="n">
-        <v>1871.623392627416</v>
+        <v>2457.382608393081</v>
       </c>
       <c r="W44" t="n">
-        <v>1517.552567374331</v>
+        <v>2457.382608393081</v>
       </c>
       <c r="X44" t="n">
-        <v>1142.944891484261</v>
+        <v>2082.774932503011</v>
       </c>
       <c r="Y44" t="n">
-        <v>938.4928745058744</v>
+        <v>1692.181930734086</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>979.479497967086</v>
+        <v>979.4794979670866</v>
       </c>
       <c r="C45" t="n">
-        <v>806.7263828889031</v>
+        <v>806.7263828889038</v>
       </c>
       <c r="D45" t="n">
-        <v>659.138076247847</v>
+        <v>659.1380762478477</v>
       </c>
       <c r="E45" t="n">
-        <v>501.5285472507018</v>
+        <v>501.5285472507024</v>
       </c>
       <c r="F45" t="n">
-        <v>356.5727572673186</v>
+        <v>356.5727572673193</v>
       </c>
       <c r="G45" t="n">
-        <v>219.9143827707587</v>
+        <v>219.9143827707593</v>
       </c>
       <c r="H45" t="n">
-        <v>115.4714096068661</v>
+        <v>115.4714096068667</v>
       </c>
       <c r="I45" t="n">
         <v>53.53110657407782</v>
@@ -7739,40 +7739,40 @@
         <v>1316.57292581273</v>
       </c>
       <c r="N45" t="n">
-        <v>1871.653956270832</v>
+        <v>1725.940263988108</v>
       </c>
       <c r="O45" t="n">
-        <v>2311.816636565171</v>
+        <v>2166.102944282447</v>
       </c>
       <c r="P45" t="n">
-        <v>2648.659451850061</v>
+        <v>2502.945759567338</v>
       </c>
       <c r="Q45" t="n">
         <v>2676.555328703891</v>
       </c>
       <c r="R45" t="n">
-        <v>2626.774708455267</v>
+        <v>2626.774708455268</v>
       </c>
       <c r="S45" t="n">
-        <v>2469.829437388747</v>
+        <v>2469.829437388748</v>
       </c>
       <c r="T45" t="n">
-        <v>2272.420954324036</v>
+        <v>2272.420954324037</v>
       </c>
       <c r="U45" t="n">
-        <v>2045.543118600484</v>
+        <v>2045.543118600485</v>
       </c>
       <c r="V45" t="n">
-        <v>1811.291875126085</v>
+        <v>1811.291875126086</v>
       </c>
       <c r="W45" t="n">
-        <v>1558.777383459418</v>
+        <v>1558.777383459419</v>
       </c>
       <c r="X45" t="n">
         <v>1352.250484864996</v>
       </c>
       <c r="Y45" t="n">
-        <v>1146.522049088646</v>
+        <v>1146.522049088647</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2171.418791487764</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="C46" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="D46" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="E46" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="F46" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="G46" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="H46" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="I46" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J46" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="K46" t="n">
-        <v>2058.295281151352</v>
+        <v>109.4344173802943</v>
       </c>
       <c r="L46" t="n">
-        <v>2185.635887283475</v>
+        <v>236.775023512417</v>
       </c>
       <c r="M46" t="n">
-        <v>2330.491601601709</v>
+        <v>381.630737830651</v>
       </c>
       <c r="N46" t="n">
-        <v>2477.044232696737</v>
+        <v>528.1833689256792</v>
       </c>
       <c r="O46" t="n">
-        <v>2597.072711188271</v>
+        <v>648.2118474172128</v>
       </c>
       <c r="P46" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="Q46" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="R46" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="S46" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="T46" t="n">
-        <v>2676.555328703891</v>
+        <v>598.0047711744362</v>
       </c>
       <c r="U46" t="n">
-        <v>2387.647426426405</v>
+        <v>598.0047711744362</v>
       </c>
       <c r="V46" t="n">
-        <v>2387.647426426405</v>
+        <v>342.5135074704572</v>
       </c>
       <c r="W46" t="n">
-        <v>2353.321510165223</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="X46" t="n">
-        <v>2353.321510165223</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="Y46" t="n">
-        <v>2353.321510165223</v>
+        <v>53.53110657407782</v>
       </c>
     </row>
   </sheetData>
@@ -8060,25 +8060,25 @@
         <v>123.666686</v>
       </c>
       <c r="K3" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L3" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M3" t="n">
-        <v>347.1828690086734</v>
+        <v>362.2401502120437</v>
       </c>
       <c r="N3" t="n">
-        <v>402.3419766228525</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O3" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P3" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q3" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R3" t="n">
         <v>47.34253660377365</v>
@@ -8236,7 +8236,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q5" t="n">
-        <v>220.8075902863009</v>
+        <v>220.807590286301</v>
       </c>
       <c r="R5" t="n">
         <v>68.34507666790174</v>
@@ -8297,16 +8297,16 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K6" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L6" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M6" t="n">
-        <v>412.8644904155703</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N6" t="n">
-        <v>210.6142818167799</v>
+        <v>344.2496456653007</v>
       </c>
       <c r="O6" t="n">
         <v>409.6168120477987</v>
@@ -8540,10 +8540,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M9" t="n">
-        <v>138.5806830739679</v>
+        <v>362.2401502120437</v>
       </c>
       <c r="N9" t="n">
-        <v>351.7176364193258</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O9" t="n">
         <v>409.6168120477987</v>
@@ -8768,10 +8768,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>68.71072211854431</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K12" t="n">
-        <v>101.1263645202482</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L12" t="n">
         <v>385.6739591155975</v>
@@ -8780,7 +8780,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N12" t="n">
-        <v>498.5160693172957</v>
+        <v>262.1746327089813</v>
       </c>
       <c r="O12" t="n">
         <v>409.6168120477987</v>
@@ -9011,7 +9011,7 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L15" t="n">
-        <v>385.6739591155975</v>
+        <v>149.3325225072832</v>
       </c>
       <c r="M15" t="n">
         <v>484.3332662999999</v>
@@ -9023,10 +9023,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P15" t="n">
-        <v>251.1088800285647</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
-        <v>62.23134199393843</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9245,7 +9245,7 @@
         <v>68.71072211854431</v>
       </c>
       <c r="K18" t="n">
-        <v>275.0438464930818</v>
+        <v>257.3754017715927</v>
       </c>
       <c r="L18" t="n">
         <v>385.6739591155975</v>
@@ -9260,10 +9260,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P18" t="n">
-        <v>313.5328346640455</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q18" t="n">
-        <v>62.23134199393843</v>
+        <v>62.23134199393844</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9953,7 +9953,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>54.56358754946162</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K27" t="n">
         <v>275.0438464930818</v>
@@ -9965,7 +9965,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N27" t="n">
-        <v>498.5160693172957</v>
+        <v>351.3305215569682</v>
       </c>
       <c r="O27" t="n">
         <v>409.6168120477987</v>
@@ -9974,7 +9974,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q27" t="n">
-        <v>147.8659206895193</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10190,7 +10190,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
-        <v>54.56358754946163</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K30" t="n">
         <v>275.0438464930818</v>
@@ -10202,7 +10202,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N30" t="n">
-        <v>498.5160693172957</v>
+        <v>351.3305215569682</v>
       </c>
       <c r="O30" t="n">
         <v>409.6168120477987</v>
@@ -10211,7 +10211,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q30" t="n">
-        <v>147.8659206895194</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R30" t="n">
         <v>47.34253660377365</v>
@@ -10427,7 +10427,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>54.56358754946163</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K33" t="n">
         <v>275.0438464930818</v>
@@ -10439,7 +10439,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N33" t="n">
-        <v>498.5160693172957</v>
+        <v>351.3305215569682</v>
       </c>
       <c r="O33" t="n">
         <v>409.6168120477987</v>
@@ -10448,7 +10448,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q33" t="n">
-        <v>147.8659206895194</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10664,7 +10664,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>54.56358754946163</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K36" t="n">
         <v>275.0438464930818</v>
@@ -10685,7 +10685,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
-        <v>147.8659206895194</v>
+        <v>71.29483148495585</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10901,7 +10901,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>131.1346767540252</v>
+        <v>54.56358754946162</v>
       </c>
       <c r="K39" t="n">
         <v>275.0438464930818</v>
@@ -10922,7 +10922,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
-        <v>71.29483148495586</v>
+        <v>147.8659206895193</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11138,7 +11138,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>54.56358754946162</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K42" t="n">
         <v>275.0438464930818</v>
@@ -11150,7 +11150,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N42" t="n">
-        <v>498.5160693172957</v>
+        <v>351.3305215569682</v>
       </c>
       <c r="O42" t="n">
         <v>409.6168120477987</v>
@@ -11159,7 +11159,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
-        <v>147.8659206895193</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11317,7 +11317,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q44" t="n">
-        <v>220.8075902863009</v>
+        <v>220.8075902863007</v>
       </c>
       <c r="R44" t="n">
         <v>68.34507666790174</v>
@@ -11387,7 +11387,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N45" t="n">
-        <v>498.5160693172957</v>
+        <v>351.3305215569682</v>
       </c>
       <c r="O45" t="n">
         <v>409.6168120477987</v>
@@ -11396,7 +11396,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q45" t="n">
-        <v>71.29483148495585</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>383.716409991395</v>
+        <v>283.9780551857888</v>
       </c>
       <c r="C2" t="n">
-        <v>366.9850956789426</v>
+        <v>92.70128833734015</v>
       </c>
       <c r="D2" t="n">
-        <v>356.6047327545984</v>
+        <v>82.3209254129959</v>
       </c>
       <c r="E2" t="n">
-        <v>383.1180357552875</v>
+        <v>108.834228413685</v>
       </c>
       <c r="F2" t="n">
         <v>407.2938634805408</v>
@@ -22594,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>205.8649517235392</v>
@@ -22606,16 +22606,16 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V2" t="n">
-        <v>86.944044016036</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W2" t="n">
-        <v>76.2463096589521</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X2" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y2" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="3">
@@ -22625,19 +22625,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G3" t="n">
         <v>136.0232102050423</v>
@@ -22676,25 +22676,25 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S3" t="n">
-        <v>136.5601600274682</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T3" t="n">
         <v>198.3825319082687</v>
       </c>
       <c r="U3" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>203.671151418586</v>
+        <v>50.24743635262973</v>
       </c>
     </row>
     <row r="4">
@@ -22725,13 +22725,13 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I4" t="n">
-        <v>78.45867480140757</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22767,7 +22767,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W4" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X4" t="n">
         <v>226.1403599323093</v>
@@ -22786,22 +22786,22 @@
         <v>383.716409991395</v>
       </c>
       <c r="C5" t="n">
-        <v>125.3959181724593</v>
+        <v>92.70128833734015</v>
       </c>
       <c r="D5" t="n">
-        <v>356.6047327545984</v>
+        <v>82.3209254129959</v>
       </c>
       <c r="E5" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F5" t="n">
-        <v>133.0100561389384</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G5" t="n">
-        <v>140.5709580622284</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H5" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I5" t="n">
         <v>205.224307868124</v>
@@ -22831,19 +22831,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>141.8508227008771</v>
+        <v>123.2267623908142</v>
       </c>
       <c r="S5" t="n">
         <v>205.8649517235392</v>
       </c>
       <c r="T5" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.4777635765444</v>
       </c>
       <c r="V5" t="n">
-        <v>328.5332215225193</v>
+        <v>54.24941418091686</v>
       </c>
       <c r="W5" t="n">
         <v>350.5301170005546</v>
@@ -22874,10 +22874,10 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F6" t="n">
-        <v>143.5062320835493</v>
+        <v>16.33907737524834</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>110.4625155221328</v>
@@ -22913,10 +22913,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -22925,13 +22925,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y6" t="n">
-        <v>57.83558556915585</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="7">
@@ -22995,10 +22995,10 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T7" t="n">
-        <v>49.4193393498993</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U7" t="n">
-        <v>286.0522703910642</v>
+        <v>107.1391437494559</v>
       </c>
       <c r="V7" t="n">
         <v>252.9363510669392</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>142.1272324849117</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C8" t="n">
         <v>366.9850956789426</v>
@@ -23068,10 +23068,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>222.9651171964204</v>
@@ -23086,7 +23086,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X8" t="n">
-        <v>96.5777917895669</v>
+        <v>202.7043887074998</v>
       </c>
       <c r="Y8" t="n">
         <v>112.4032644096333</v>
@@ -23105,19 +23105,19 @@
         <v>171.025583927401</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E9" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H9" t="n">
-        <v>53.73265002594157</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T9" t="n">
         <v>198.3825319082687</v>
       </c>
       <c r="U9" t="n">
-        <v>224.6571770672012</v>
+        <v>42.75186573175606</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y9" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23187,10 +23187,10 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E10" t="n">
-        <v>114.2205189413953</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G10" t="n">
         <v>167.8895889301081</v>
@@ -23241,7 +23241,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W10" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X10" t="n">
         <v>226.1403599323093</v>
@@ -23260,19 +23260,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D11" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
-        <v>413.7676097105165</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>327.0100701439972</v>
@@ -23305,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>43.03627161178294</v>
       </c>
       <c r="S11" t="n">
-        <v>159.0140965641847</v>
+        <v>181.0913913621372</v>
       </c>
       <c r="T11" t="n">
         <v>218.2060931489365</v>
@@ -23320,10 +23320,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23342,7 +23342,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23384,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>58.57982147197338</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>103.3856341731239</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23399,7 +23399,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>15.8530320704518</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>45.0284826196514</v>
       </c>
       <c r="D13" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.4019283127586</v>
       </c>
       <c r="H13" t="n">
-        <v>107.6732161184172</v>
+        <v>157.2983257928464</v>
       </c>
       <c r="I13" t="n">
         <v>139.0932620502043</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.55977888071592</v>
+        <v>73.55977888071594</v>
       </c>
       <c r="S14" t="n">
         <v>181.0913913621372</v>
@@ -23554,13 +23554,13 @@
         <v>251.3907911210793</v>
       </c>
       <c r="V14" t="n">
-        <v>328.5332215225193</v>
+        <v>317.1330313198084</v>
       </c>
       <c r="W14" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X14" t="n">
-        <v>15.71148703408591</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23579,7 +23579,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>131.368640415231</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23591,7 +23591,7 @@
         <v>135.4415306281902</v>
       </c>
       <c r="H15" t="n">
-        <v>104.844715398324</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>66.47641768350113</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>26.52392501690676</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23661,16 +23661,16 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>53.3866172795347</v>
+        <v>167.4019283127586</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.2983257928464</v>
       </c>
       <c r="I16" t="n">
         <v>139.0932620502043</v>
@@ -23709,13 +23709,13 @@
         <v>226.2488251719237</v>
       </c>
       <c r="U16" t="n">
-        <v>286.025670721027</v>
+        <v>7.670965199368595</v>
       </c>
       <c r="V16" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W16" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>226.1403599323093</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>257.3986230799817</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.7676097105165</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>327.0100701439972</v>
       </c>
       <c r="I17" t="n">
         <v>163.3117380016203</v>
@@ -23779,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.55977888071592</v>
+        <v>73.55977888071594</v>
       </c>
       <c r="S17" t="n">
-        <v>9.254394341592928</v>
+        <v>181.0913913621372</v>
       </c>
       <c r="T17" t="n">
         <v>218.2060931489365</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.3907911210793</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.6870717512358</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>26.52392501690677</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23867,7 +23867,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>26.52392501690687</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23946,13 +23946,13 @@
         <v>226.2488251719237</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>7.670965199368595</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W19" t="n">
-        <v>260.6073162663077</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>226.1403599323093</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>407.2938634805408</v>
@@ -23989,7 +23989,7 @@
         <v>327.0100701439972</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>163.3117380016203</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>21.51923709318957</v>
+        <v>73.55977888071594</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>181.0913913621372</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>218.2060931489365</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.3907911210793</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>257.3986230799816</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>26.52392501690677</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24104,7 +24104,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>26.52392501690687</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>127.9778111409491</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C22" t="n">
         <v>167.3365529312023</v>
@@ -24180,16 +24180,16 @@
         <v>213.8588123845238</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>226.2488251719237</v>
       </c>
       <c r="U22" t="n">
-        <v>286.025670721027</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>7.670965199368652</v>
       </c>
       <c r="X22" t="n">
         <v>226.1403599323093</v>
@@ -24214,16 +24214,16 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.4877467656314</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>9.557040961360713</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>152.5223218189375</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>39.92675197170468</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C25" t="n">
         <v>167.3365529312023</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E25" t="n">
-        <v>111.2365744551765</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F25" t="n">
         <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.2763914303091</v>
       </c>
       <c r="H25" t="n">
         <v>156.1821887834319</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>135.3180256216325</v>
       </c>
       <c r="J25" t="n">
         <v>45.48578169199546</v>
@@ -24417,7 +24417,7 @@
         <v>211.671046896745</v>
       </c>
       <c r="T25" t="n">
-        <v>225.7124403105487</v>
+        <v>63.13196629056489</v>
       </c>
       <c r="U25" t="n">
         <v>286.0188232547115</v>
@@ -24426,13 +24426,13 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W25" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C26" t="n">
         <v>366.9850956789426</v>
@@ -24451,19 +24451,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I26" t="n">
-        <v>99.43156545605008</v>
+        <v>90.76238465658815</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,19 +24496,19 @@
         <v>174.714014505568</v>
       </c>
       <c r="T26" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3684020854885</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X26" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D28" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>45.48109242253176</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1821887834319</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>135.3180256216325</v>
       </c>
       <c r="J28" t="n">
         <v>45.48578169199546</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>28.41377105177698</v>
       </c>
       <c r="R28" t="n">
         <v>145.8195582697328</v>
@@ -24654,7 +24654,7 @@
         <v>211.671046896745</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.7124403105487</v>
       </c>
       <c r="U28" t="n">
         <v>286.0188232547115</v>
@@ -24669,7 +24669,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.7486738677682</v>
+        <v>160.7425526204328</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>366.9850956789426</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>152.5223218189375</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>21.33157824352453</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V29" t="n">
-        <v>111.3483810619306</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W29" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X29" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24861,7 +24861,7 @@
         <v>135.3180256216325</v>
       </c>
       <c r="J31" t="n">
-        <v>45.48578169199547</v>
+        <v>45.48578169199546</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>28.41377105177699</v>
+        <v>28.41377105177698</v>
       </c>
       <c r="R31" t="n">
         <v>145.8195582697328</v>
@@ -24891,13 +24891,13 @@
         <v>211.671046896745</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.7124403105487</v>
       </c>
       <c r="U31" t="n">
-        <v>130.4021156775082</v>
+        <v>157.6260264338988</v>
       </c>
       <c r="V31" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24922,22 +24922,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>356.6047327545984</v>
+        <v>103.1126383046339</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F32" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>324.1439237596927</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>152.5223218189376</v>
+        <v>152.5223218189375</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,10 +24964,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>55.97983816907737</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.714014505568</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24976,16 +24976,16 @@
         <v>251.3684020854885</v>
       </c>
       <c r="V32" t="n">
-        <v>253.5761937953683</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W32" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="33">
@@ -25098,7 +25098,7 @@
         <v>135.3180256216325</v>
       </c>
       <c r="J34" t="n">
-        <v>45.48578169199547</v>
+        <v>45.48578169199546</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>28.41377105177699</v>
+        <v>28.41377105177698</v>
       </c>
       <c r="R34" t="n">
         <v>145.8195582697328</v>
@@ -25131,10 +25131,10 @@
         <v>225.7124403105487</v>
       </c>
       <c r="U34" t="n">
-        <v>157.626026433899</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>157.6260264338986</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>324.1439237596927</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>90.76238465658815</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>55.97983816907737</v>
+        <v>55.97983816907735</v>
       </c>
       <c r="S35" t="n">
         <v>174.714014505568</v>
       </c>
       <c r="T35" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>46.66446127504369</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X35" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,31 +25311,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C37" t="n">
-        <v>133.3674879644435</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.9746241731992</v>
+        <v>87.39523324881779</v>
       </c>
       <c r="F37" t="n">
         <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.2763914303091</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1821887834319</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>135.3180256216325</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.48578169199547</v>
+        <v>45.48578169199546</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>28.41377105177699</v>
+        <v>28.41377105177698</v>
       </c>
       <c r="R37" t="n">
         <v>145.8195582697328</v>
@@ -25374,7 +25374,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X37" t="n">
         <v>226.1403599323093</v>
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F38" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.4877467656314</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I38" t="n">
-        <v>152.5223218189376</v>
+        <v>152.5223218189375</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,19 +25438,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>55.97983816907735</v>
       </c>
       <c r="S38" t="n">
-        <v>169.8597868377706</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T38" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>328.5332215225193</v>
+        <v>98.86669593968958</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D40" t="n">
         <v>149.0055665145194</v>
@@ -25563,16 +25563,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.2763914303091</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1821887834319</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>135.3180256216325</v>
       </c>
       <c r="J40" t="n">
-        <v>4.177215683404228</v>
+        <v>45.48578169199546</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>28.41377105177699</v>
+        <v>28.41377105177698</v>
       </c>
       <c r="R40" t="n">
         <v>145.8195582697328</v>
@@ -25605,13 +25605,13 @@
         <v>225.7124403105487</v>
       </c>
       <c r="U40" t="n">
-        <v>286.0188232547115</v>
+        <v>157.6260264338988</v>
       </c>
       <c r="V40" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>226.1403599323093</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>366.9850956789426</v>
@@ -25636,16 +25636,16 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E41" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.4877467656314</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I41" t="n">
         <v>152.5223218189375</v>
@@ -25675,10 +25675,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>55.97983816907735</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>140.0657545800152</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25687,13 +25687,13 @@
         <v>251.3684020854885</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X41" t="n">
-        <v>18.93066251954565</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D43" t="n">
-        <v>60.81006420977103</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
         <v>167.2763914303091</v>
@@ -25839,13 +25839,13 @@
         <v>211.671046896745</v>
       </c>
       <c r="T43" t="n">
-        <v>225.7124403105487</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.0188232547115</v>
       </c>
       <c r="V43" t="n">
-        <v>252.9363510669392</v>
+        <v>97.3196434897358</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E44" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.4877467656314</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>324.1439237596927</v>
+        <v>289.4956638341399</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>152.5223218189375</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,19 +25921,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>184.2795749426333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D46" t="n">
         <v>149.0055665145194</v>
@@ -26076,16 +26076,16 @@
         <v>211.671046896745</v>
       </c>
       <c r="T46" t="n">
-        <v>225.7124403105487</v>
+        <v>97.31964348973588</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.0188232547115</v>
       </c>
       <c r="V46" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>252.1099197888452</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>226.1403599323093</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>476577.5785009645</v>
+        <v>476577.5785009644</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>476577.5785009644</v>
+        <v>476577.5785009643</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>476577.5785009644</v>
+        <v>476577.5785009645</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>699258.8334531758</v>
+        <v>699258.833453176</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>756590.0515319079</v>
+        <v>756590.051531908</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>756590.0515319076</v>
+        <v>756590.0515319079</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>756590.0515319078</v>
+        <v>756590.051531908</v>
       </c>
     </row>
     <row r="16">
@@ -26328,19 +26328,19 @@
         <v>261516.7932972994</v>
       </c>
       <c r="G2" t="n">
-        <v>261516.7932972994</v>
+        <v>261516.7932972995</v>
       </c>
       <c r="H2" t="n">
-        <v>261516.7932972994</v>
+        <v>261516.7932972995</v>
       </c>
       <c r="I2" t="n">
-        <v>284260.2700444342</v>
+        <v>284260.2700444343</v>
       </c>
       <c r="J2" t="n">
         <v>284260.2700444343</v>
       </c>
       <c r="K2" t="n">
-        <v>284260.2700444344</v>
+        <v>284260.2700444343</v>
       </c>
       <c r="L2" t="n">
         <v>284260.2700444342</v>
@@ -26349,10 +26349,10 @@
         <v>284260.2700444342</v>
       </c>
       <c r="N2" t="n">
-        <v>284260.2700444341</v>
+        <v>284260.2700444343</v>
       </c>
       <c r="O2" t="n">
-        <v>284260.2700444345</v>
+        <v>284260.2700444344</v>
       </c>
       <c r="P2" t="n">
         <v>284260.2700444341</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91918.81236773985</v>
+        <v>91918.81236773984</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>78246.12537476214</v>
+        <v>78246.12537476215</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43840.0882525748</v>
+        <v>43840.08825257481</v>
       </c>
       <c r="C4" t="n">
-        <v>43840.0882525748</v>
+        <v>43840.08825257482</v>
       </c>
       <c r="D4" t="n">
         <v>43840.08825257481</v>
@@ -26441,13 +26441,13 @@
         <v>46448.7535052164</v>
       </c>
       <c r="J4" t="n">
-        <v>46448.7535052164</v>
+        <v>46448.75350521639</v>
       </c>
       <c r="K4" t="n">
-        <v>46448.7535052164</v>
+        <v>46448.75350521639</v>
       </c>
       <c r="L4" t="n">
-        <v>46448.7535052164</v>
+        <v>46448.75350521639</v>
       </c>
       <c r="M4" t="n">
         <v>46448.7535052164</v>
@@ -26456,10 +26456,10 @@
         <v>46448.7535052164</v>
       </c>
       <c r="O4" t="n">
-        <v>46448.7535052164</v>
+        <v>46448.75350521639</v>
       </c>
       <c r="P4" t="n">
-        <v>46448.7535052164</v>
+        <v>46448.75350521639</v>
       </c>
     </row>
     <row r="5">
@@ -26502,7 +26502,7 @@
         <v>48096.64131659552</v>
       </c>
       <c r="M5" t="n">
-        <v>48096.64131659551</v>
+        <v>48096.64131659552</v>
       </c>
       <c r="N5" t="n">
         <v>48096.64131659552</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12885.83226433335</v>
+        <v>-24574.96128758925</v>
       </c>
       <c r="C6" t="n">
-        <v>79032.98010340647</v>
+        <v>67343.85108015061</v>
       </c>
       <c r="D6" t="n">
-        <v>79032.9801034065</v>
+        <v>67343.85108015055</v>
       </c>
       <c r="E6" t="n">
-        <v>-137072.1610187041</v>
+        <v>-144344.3065692126</v>
       </c>
       <c r="F6" t="n">
-        <v>173940.8777808405</v>
+        <v>166668.732230332</v>
       </c>
       <c r="G6" t="n">
-        <v>173940.8777808404</v>
+        <v>166668.7322303322</v>
       </c>
       <c r="H6" t="n">
-        <v>173940.8777808404</v>
+        <v>166668.7322303321</v>
       </c>
       <c r="I6" t="n">
-        <v>115806.3270808678</v>
+        <v>109671.3553677162</v>
       </c>
       <c r="J6" t="n">
-        <v>117950.1627345362</v>
+        <v>111815.1910213845</v>
       </c>
       <c r="K6" t="n">
-        <v>189714.8752226225</v>
+        <v>183579.9035094708</v>
       </c>
       <c r="L6" t="n">
-        <v>189714.8752226223</v>
+        <v>183579.9035094706</v>
       </c>
       <c r="M6" t="n">
-        <v>111468.7498478601</v>
+        <v>105333.7781347085</v>
       </c>
       <c r="N6" t="n">
-        <v>189714.8752226222</v>
+        <v>183579.9035094708</v>
       </c>
       <c r="O6" t="n">
-        <v>189714.8752226226</v>
+        <v>183579.9035094708</v>
       </c>
       <c r="P6" t="n">
-        <v>189714.8752226222</v>
+        <v>183579.9035094705</v>
       </c>
     </row>
   </sheetData>
@@ -26764,16 +26764,16 @@
         <v>340.0458862521271</v>
       </c>
       <c r="K3" t="n">
-        <v>340.045886252127</v>
+        <v>340.0458862521271</v>
       </c>
       <c r="L3" t="n">
-        <v>340.045886252127</v>
+        <v>340.0458862521272</v>
       </c>
       <c r="M3" t="n">
-        <v>340.045886252127</v>
+        <v>340.0458862521271</v>
       </c>
       <c r="N3" t="n">
-        <v>340.045886252127</v>
+        <v>340.0458862521271</v>
       </c>
       <c r="O3" t="n">
         <v>340.0458862521271</v>
@@ -26822,7 +26822,7 @@
         <v>669.1388321759728</v>
       </c>
       <c r="M4" t="n">
-        <v>669.1388321759727</v>
+        <v>669.1388321759728</v>
       </c>
       <c r="N4" t="n">
         <v>669.1388321759728</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>313.9842272787039</v>
+        <v>313.984227278704</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31761,22 +31761,22 @@
         <v>41.91256986650369</v>
       </c>
       <c r="J11" t="n">
-        <v>92.27098052544369</v>
+        <v>92.27098052544368</v>
       </c>
       <c r="K11" t="n">
-        <v>138.2902810234426</v>
+        <v>138.2902810234425</v>
       </c>
       <c r="L11" t="n">
-        <v>171.5613220727134</v>
+        <v>171.5613220727133</v>
       </c>
       <c r="M11" t="n">
         <v>190.8950271336934</v>
       </c>
       <c r="N11" t="n">
-        <v>193.983908247323</v>
+        <v>193.9839082473229</v>
       </c>
       <c r="O11" t="n">
-        <v>183.1735038219279</v>
+        <v>183.1735038219278</v>
       </c>
       <c r="P11" t="n">
         <v>156.3343476432284</v>
@@ -31785,16 +31785,16 @@
         <v>117.4005843764062</v>
       </c>
       <c r="R11" t="n">
-        <v>68.29104382016115</v>
+        <v>68.29104382016114</v>
       </c>
       <c r="S11" t="n">
         <v>24.77356036140206</v>
       </c>
       <c r="T11" t="n">
-        <v>4.759024047483817</v>
+        <v>4.759024047483816</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0869724554651525</v>
+        <v>0.08697245546515249</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,28 +31831,28 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5816795768521379</v>
+        <v>0.5816795768521378</v>
       </c>
       <c r="H12" t="n">
-        <v>5.617800123808806</v>
+        <v>5.617800123808805</v>
       </c>
       <c r="I12" t="n">
         <v>20.02712578197054</v>
       </c>
       <c r="J12" t="n">
-        <v>54.95596388145572</v>
+        <v>54.95596388145571</v>
       </c>
       <c r="K12" t="n">
-        <v>93.92849553054896</v>
+        <v>93.92849553054893</v>
       </c>
       <c r="L12" t="n">
-        <v>126.2984537371276</v>
+        <v>126.2984537371275</v>
       </c>
       <c r="M12" t="n">
         <v>147.3843383980175</v>
       </c>
       <c r="N12" t="n">
-        <v>151.2851632796269</v>
+        <v>151.2851632796268</v>
       </c>
       <c r="O12" t="n">
         <v>138.3963684451663</v>
@@ -31861,16 +31861,16 @@
         <v>111.0752869166157</v>
       </c>
       <c r="Q12" t="n">
-        <v>74.25088773993255</v>
+        <v>74.25088773993254</v>
       </c>
       <c r="R12" t="n">
-        <v>36.11515828911784</v>
+        <v>36.11515828911783</v>
       </c>
       <c r="S12" t="n">
-        <v>10.80444301740703</v>
+        <v>10.80444301740702</v>
       </c>
       <c r="T12" t="n">
-        <v>2.344576890908397</v>
+        <v>2.344576890908396</v>
       </c>
       <c r="U12" t="n">
         <v>0.03826839321395645</v>
@@ -31910,43 +31910,43 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4876606173494339</v>
+        <v>0.4876606173494338</v>
       </c>
       <c r="H13" t="n">
-        <v>4.335746216070424</v>
+        <v>4.335746216070423</v>
       </c>
       <c r="I13" t="n">
         <v>14.66528474719934</v>
       </c>
       <c r="J13" t="n">
-        <v>34.47760564660497</v>
+        <v>34.47760564660496</v>
       </c>
       <c r="K13" t="n">
-        <v>56.65729717932513</v>
+        <v>56.65729717932511</v>
       </c>
       <c r="L13" t="n">
-        <v>72.50183396484221</v>
+        <v>72.50183396484219</v>
       </c>
       <c r="M13" t="n">
-        <v>76.44301840869352</v>
+        <v>76.4430184086935</v>
       </c>
       <c r="N13" t="n">
-        <v>74.62537428948205</v>
+        <v>74.62537428948204</v>
       </c>
       <c r="O13" t="n">
-        <v>68.92861162317274</v>
+        <v>68.92861162317273</v>
       </c>
       <c r="P13" t="n">
-        <v>58.98033502924424</v>
+        <v>58.98033502924422</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.83492678550578</v>
+        <v>40.83492678550577</v>
       </c>
       <c r="R13" t="n">
-        <v>21.92699466736636</v>
+        <v>21.92699466736635</v>
       </c>
       <c r="S13" t="n">
-        <v>8.498594576898768</v>
+        <v>8.498594576898766</v>
       </c>
       <c r="T13" t="n">
         <v>2.083640819583944</v>
@@ -31998,22 +31998,22 @@
         <v>41.91256986650369</v>
       </c>
       <c r="J14" t="n">
-        <v>92.27098052544369</v>
+        <v>92.27098052544368</v>
       </c>
       <c r="K14" t="n">
-        <v>138.2902810234426</v>
+        <v>138.2902810234425</v>
       </c>
       <c r="L14" t="n">
-        <v>171.5613220727134</v>
+        <v>171.5613220727133</v>
       </c>
       <c r="M14" t="n">
         <v>190.8950271336934</v>
       </c>
       <c r="N14" t="n">
-        <v>193.983908247323</v>
+        <v>193.9839082473229</v>
       </c>
       <c r="O14" t="n">
-        <v>183.1735038219279</v>
+        <v>183.1735038219278</v>
       </c>
       <c r="P14" t="n">
         <v>156.3343476432284</v>
@@ -32022,16 +32022,16 @@
         <v>117.4005843764062</v>
       </c>
       <c r="R14" t="n">
-        <v>68.29104382016115</v>
+        <v>68.29104382016114</v>
       </c>
       <c r="S14" t="n">
         <v>24.77356036140206</v>
       </c>
       <c r="T14" t="n">
-        <v>4.759024047483817</v>
+        <v>4.759024047483816</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0869724554651525</v>
+        <v>0.08697245546515249</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,28 +32068,28 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5816795768521379</v>
+        <v>0.5816795768521378</v>
       </c>
       <c r="H15" t="n">
-        <v>5.617800123808806</v>
+        <v>5.617800123808805</v>
       </c>
       <c r="I15" t="n">
         <v>20.02712578197054</v>
       </c>
       <c r="J15" t="n">
-        <v>54.95596388145572</v>
+        <v>54.95596388145571</v>
       </c>
       <c r="K15" t="n">
-        <v>93.92849553054896</v>
+        <v>93.92849553054893</v>
       </c>
       <c r="L15" t="n">
-        <v>126.2984537371276</v>
+        <v>126.2984537371275</v>
       </c>
       <c r="M15" t="n">
         <v>147.3843383980175</v>
       </c>
       <c r="N15" t="n">
-        <v>151.2851632796269</v>
+        <v>151.2851632796268</v>
       </c>
       <c r="O15" t="n">
         <v>138.3963684451663</v>
@@ -32098,16 +32098,16 @@
         <v>111.0752869166157</v>
       </c>
       <c r="Q15" t="n">
-        <v>74.25088773993255</v>
+        <v>74.25088773993254</v>
       </c>
       <c r="R15" t="n">
-        <v>36.11515828911784</v>
+        <v>36.11515828911783</v>
       </c>
       <c r="S15" t="n">
-        <v>10.80444301740703</v>
+        <v>10.80444301740702</v>
       </c>
       <c r="T15" t="n">
-        <v>2.344576890908397</v>
+        <v>2.344576890908396</v>
       </c>
       <c r="U15" t="n">
         <v>0.03826839321395645</v>
@@ -32147,43 +32147,43 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4876606173494339</v>
+        <v>0.4876606173494338</v>
       </c>
       <c r="H16" t="n">
-        <v>4.335746216070424</v>
+        <v>4.335746216070423</v>
       </c>
       <c r="I16" t="n">
         <v>14.66528474719934</v>
       </c>
       <c r="J16" t="n">
-        <v>34.47760564660497</v>
+        <v>34.47760564660496</v>
       </c>
       <c r="K16" t="n">
-        <v>56.65729717932513</v>
+        <v>56.65729717932511</v>
       </c>
       <c r="L16" t="n">
-        <v>72.50183396484221</v>
+        <v>72.50183396484219</v>
       </c>
       <c r="M16" t="n">
-        <v>76.44301840869352</v>
+        <v>76.4430184086935</v>
       </c>
       <c r="N16" t="n">
-        <v>74.62537428948205</v>
+        <v>74.62537428948204</v>
       </c>
       <c r="O16" t="n">
-        <v>68.92861162317274</v>
+        <v>68.92861162317273</v>
       </c>
       <c r="P16" t="n">
-        <v>58.98033502924424</v>
+        <v>58.98033502924422</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.83492678550578</v>
+        <v>40.83492678550577</v>
       </c>
       <c r="R16" t="n">
-        <v>21.92699466736636</v>
+        <v>21.92699466736635</v>
       </c>
       <c r="S16" t="n">
-        <v>8.498594576898768</v>
+        <v>8.498594576898766</v>
       </c>
       <c r="T16" t="n">
         <v>2.083640819583944</v>
@@ -32235,22 +32235,22 @@
         <v>41.91256986650369</v>
       </c>
       <c r="J17" t="n">
-        <v>92.27098052544369</v>
+        <v>92.27098052544368</v>
       </c>
       <c r="K17" t="n">
-        <v>138.2902810234426</v>
+        <v>138.2902810234425</v>
       </c>
       <c r="L17" t="n">
-        <v>171.5613220727134</v>
+        <v>171.5613220727133</v>
       </c>
       <c r="M17" t="n">
         <v>190.8950271336934</v>
       </c>
       <c r="N17" t="n">
-        <v>193.983908247323</v>
+        <v>193.9839082473229</v>
       </c>
       <c r="O17" t="n">
-        <v>183.1735038219279</v>
+        <v>183.1735038219278</v>
       </c>
       <c r="P17" t="n">
         <v>156.3343476432284</v>
@@ -32259,16 +32259,16 @@
         <v>117.4005843764062</v>
       </c>
       <c r="R17" t="n">
-        <v>68.29104382016115</v>
+        <v>68.29104382016114</v>
       </c>
       <c r="S17" t="n">
         <v>24.77356036140206</v>
       </c>
       <c r="T17" t="n">
-        <v>4.759024047483817</v>
+        <v>4.759024047483816</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0869724554651525</v>
+        <v>0.08697245546515249</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,28 +32305,28 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5816795768521379</v>
+        <v>0.5816795768521378</v>
       </c>
       <c r="H18" t="n">
-        <v>5.617800123808806</v>
+        <v>5.617800123808805</v>
       </c>
       <c r="I18" t="n">
         <v>20.02712578197054</v>
       </c>
       <c r="J18" t="n">
-        <v>54.95596388145572</v>
+        <v>54.95596388145571</v>
       </c>
       <c r="K18" t="n">
-        <v>93.92849553054896</v>
+        <v>93.92849553054893</v>
       </c>
       <c r="L18" t="n">
-        <v>126.2984537371276</v>
+        <v>126.2984537371275</v>
       </c>
       <c r="M18" t="n">
         <v>147.3843383980175</v>
       </c>
       <c r="N18" t="n">
-        <v>151.2851632796269</v>
+        <v>151.2851632796268</v>
       </c>
       <c r="O18" t="n">
         <v>138.3963684451663</v>
@@ -32335,16 +32335,16 @@
         <v>111.0752869166157</v>
       </c>
       <c r="Q18" t="n">
-        <v>74.25088773993255</v>
+        <v>74.25088773993254</v>
       </c>
       <c r="R18" t="n">
-        <v>36.11515828911784</v>
+        <v>36.11515828911783</v>
       </c>
       <c r="S18" t="n">
-        <v>10.80444301740703</v>
+        <v>10.80444301740702</v>
       </c>
       <c r="T18" t="n">
-        <v>2.344576890908397</v>
+        <v>2.344576890908396</v>
       </c>
       <c r="U18" t="n">
         <v>0.03826839321395645</v>
@@ -32384,43 +32384,43 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4876606173494339</v>
+        <v>0.4876606173494338</v>
       </c>
       <c r="H19" t="n">
-        <v>4.335746216070424</v>
+        <v>4.335746216070423</v>
       </c>
       <c r="I19" t="n">
         <v>14.66528474719934</v>
       </c>
       <c r="J19" t="n">
-        <v>34.47760564660497</v>
+        <v>34.47760564660496</v>
       </c>
       <c r="K19" t="n">
-        <v>56.65729717932513</v>
+        <v>56.65729717932511</v>
       </c>
       <c r="L19" t="n">
-        <v>72.50183396484221</v>
+        <v>72.50183396484219</v>
       </c>
       <c r="M19" t="n">
-        <v>76.44301840869352</v>
+        <v>76.4430184086935</v>
       </c>
       <c r="N19" t="n">
-        <v>74.62537428948205</v>
+        <v>74.62537428948204</v>
       </c>
       <c r="O19" t="n">
-        <v>68.92861162317274</v>
+        <v>68.92861162317273</v>
       </c>
       <c r="P19" t="n">
-        <v>58.98033502924424</v>
+        <v>58.98033502924422</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.83492678550578</v>
+        <v>40.83492678550577</v>
       </c>
       <c r="R19" t="n">
-        <v>21.92699466736636</v>
+        <v>21.92699466736635</v>
       </c>
       <c r="S19" t="n">
-        <v>8.498594576898768</v>
+        <v>8.498594576898766</v>
       </c>
       <c r="T19" t="n">
         <v>2.083640819583944</v>
@@ -33180,7 +33180,7 @@
         <v>13.99997962846068</v>
       </c>
       <c r="I29" t="n">
-        <v>52.70198604918645</v>
+        <v>52.70198604918647</v>
       </c>
       <c r="J29" t="n">
         <v>116.0239981438853</v>
@@ -33195,7 +33195,7 @@
         <v>240.036511454749</v>
       </c>
       <c r="N29" t="n">
-        <v>243.9205531605333</v>
+        <v>243.9205531605334</v>
       </c>
       <c r="O29" t="n">
         <v>230.327261576937</v>
@@ -33207,13 +33207,13 @@
         <v>147.6226339658669</v>
       </c>
       <c r="R29" t="n">
-        <v>85.87098453179971</v>
+        <v>85.87098453179972</v>
       </c>
       <c r="S29" t="n">
-        <v>31.15093721797124</v>
+        <v>31.15093721797125</v>
       </c>
       <c r="T29" t="n">
-        <v>5.984124088718334</v>
+        <v>5.984124088718336</v>
       </c>
       <c r="U29" t="n">
         <v>0.1093614910559604</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7314194534479714</v>
+        <v>0.7314194534479715</v>
       </c>
       <c r="H30" t="n">
-        <v>7.063972089879093</v>
+        <v>7.063972089879095</v>
       </c>
       <c r="I30" t="n">
         <v>25.1826434630113</v>
       </c>
       <c r="J30" t="n">
-        <v>69.1030984505384</v>
+        <v>69.10309845053841</v>
       </c>
       <c r="K30" t="n">
         <v>118.1082018315525</v>
@@ -33271,22 +33271,22 @@
         <v>158.8110528199203</v>
       </c>
       <c r="M30" t="n">
-        <v>185.3250080074092</v>
+        <v>185.3250080074093</v>
       </c>
       <c r="N30" t="n">
-        <v>190.2300095175932</v>
+        <v>190.2300095175933</v>
       </c>
       <c r="O30" t="n">
         <v>174.0232942596145</v>
       </c>
       <c r="P30" t="n">
-        <v>139.6690358079727</v>
+        <v>139.6690358079728</v>
       </c>
       <c r="Q30" t="n">
-        <v>93.36505163662176</v>
+        <v>93.36505163662177</v>
       </c>
       <c r="R30" t="n">
-        <v>45.41216571495389</v>
+        <v>45.4121657149539</v>
       </c>
       <c r="S30" t="n">
         <v>13.58579554979016</v>
@@ -33295,7 +33295,7 @@
         <v>2.948133674204761</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04811970088473498</v>
+        <v>0.04811970088473499</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6131974997989176</v>
+        <v>0.6131974997989177</v>
       </c>
       <c r="H31" t="n">
-        <v>5.451883225484925</v>
+        <v>5.451883225484926</v>
       </c>
       <c r="I31" t="n">
         <v>18.44052117577109</v>
@@ -33344,28 +33344,28 @@
         <v>43.35306323578347</v>
       </c>
       <c r="K31" t="n">
-        <v>71.24240043118331</v>
+        <v>71.24240043118333</v>
       </c>
       <c r="L31" t="n">
-        <v>91.16574465192272</v>
+        <v>91.16574465192274</v>
       </c>
       <c r="M31" t="n">
-        <v>96.12149535484303</v>
+        <v>96.12149535484305</v>
       </c>
       <c r="N31" t="n">
-        <v>93.83594103741079</v>
+        <v>93.83594103741081</v>
       </c>
       <c r="O31" t="n">
-        <v>86.67267933521431</v>
+        <v>86.67267933521433</v>
       </c>
       <c r="P31" t="n">
-        <v>74.16345033931633</v>
+        <v>74.16345033931634</v>
       </c>
       <c r="Q31" t="n">
-        <v>51.34692882407118</v>
+        <v>51.34692882407119</v>
       </c>
       <c r="R31" t="n">
-        <v>27.5715894000495</v>
+        <v>27.57158940004951</v>
       </c>
       <c r="S31" t="n">
         <v>10.6863600646775</v>
@@ -33414,25 +33414,25 @@
         <v>1.367018638199505</v>
       </c>
       <c r="H32" t="n">
-        <v>13.99997962846068</v>
+        <v>13.99997962846069</v>
       </c>
       <c r="I32" t="n">
-        <v>52.70198604918645</v>
+        <v>52.70198604918647</v>
       </c>
       <c r="J32" t="n">
-        <v>116.0239981438853</v>
+        <v>116.0239981438854</v>
       </c>
       <c r="K32" t="n">
         <v>173.8898970988704</v>
       </c>
       <c r="L32" t="n">
-        <v>215.7257937476685</v>
+        <v>215.7257937476686</v>
       </c>
       <c r="M32" t="n">
         <v>240.036511454749</v>
       </c>
       <c r="N32" t="n">
-        <v>243.9205531605333</v>
+        <v>243.9205531605334</v>
       </c>
       <c r="O32" t="n">
         <v>230.327261576937</v>
@@ -33444,13 +33444,13 @@
         <v>147.6226339658669</v>
       </c>
       <c r="R32" t="n">
-        <v>85.87098453179971</v>
+        <v>85.87098453179973</v>
       </c>
       <c r="S32" t="n">
-        <v>31.15093721797124</v>
+        <v>31.15093721797125</v>
       </c>
       <c r="T32" t="n">
-        <v>5.984124088718334</v>
+        <v>5.984124088718337</v>
       </c>
       <c r="U32" t="n">
         <v>0.1093614910559604</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7314194534479714</v>
+        <v>0.7314194534479717</v>
       </c>
       <c r="H33" t="n">
-        <v>7.063972089879093</v>
+        <v>7.063972089879096</v>
       </c>
       <c r="I33" t="n">
-        <v>25.1826434630113</v>
+        <v>25.18264346301131</v>
       </c>
       <c r="J33" t="n">
-        <v>69.1030984505384</v>
+        <v>69.10309845053843</v>
       </c>
       <c r="K33" t="n">
         <v>118.1082018315525</v>
@@ -33508,31 +33508,31 @@
         <v>158.8110528199203</v>
       </c>
       <c r="M33" t="n">
-        <v>185.3250080074092</v>
+        <v>185.3250080074093</v>
       </c>
       <c r="N33" t="n">
-        <v>190.2300095175932</v>
+        <v>190.2300095175933</v>
       </c>
       <c r="O33" t="n">
         <v>174.0232942596145</v>
       </c>
       <c r="P33" t="n">
-        <v>139.6690358079727</v>
+        <v>139.6690358079728</v>
       </c>
       <c r="Q33" t="n">
-        <v>93.36505163662176</v>
+        <v>93.3650516366218</v>
       </c>
       <c r="R33" t="n">
-        <v>45.41216571495389</v>
+        <v>45.41216571495391</v>
       </c>
       <c r="S33" t="n">
-        <v>13.58579554979016</v>
+        <v>13.58579554979017</v>
       </c>
       <c r="T33" t="n">
-        <v>2.948133674204761</v>
+        <v>2.948133674204762</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04811970088473498</v>
+        <v>0.04811970088473499</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,40 +33569,40 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6131974997989176</v>
+        <v>0.6131974997989178</v>
       </c>
       <c r="H34" t="n">
-        <v>5.451883225484925</v>
+        <v>5.451883225484927</v>
       </c>
       <c r="I34" t="n">
-        <v>18.44052117577109</v>
+        <v>18.4405211757711</v>
       </c>
       <c r="J34" t="n">
-        <v>43.35306323578347</v>
+        <v>43.35306323578348</v>
       </c>
       <c r="K34" t="n">
-        <v>71.24240043118331</v>
+        <v>71.24240043118334</v>
       </c>
       <c r="L34" t="n">
-        <v>91.16574465192272</v>
+        <v>91.16574465192275</v>
       </c>
       <c r="M34" t="n">
-        <v>96.12149535484303</v>
+        <v>96.12149535484306</v>
       </c>
       <c r="N34" t="n">
-        <v>93.83594103741079</v>
+        <v>93.83594103741082</v>
       </c>
       <c r="O34" t="n">
-        <v>86.67267933521431</v>
+        <v>86.67267933521434</v>
       </c>
       <c r="P34" t="n">
-        <v>74.16345033931633</v>
+        <v>74.16345033931636</v>
       </c>
       <c r="Q34" t="n">
-        <v>51.34692882407118</v>
+        <v>51.3469288240712</v>
       </c>
       <c r="R34" t="n">
-        <v>27.5715894000495</v>
+        <v>27.57158940004951</v>
       </c>
       <c r="S34" t="n">
         <v>10.6863600646775</v>
@@ -33611,7 +33611,7 @@
         <v>2.620025680959011</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03344713635266827</v>
+        <v>0.03344713635266828</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,7 +33654,7 @@
         <v>13.99997962846068</v>
       </c>
       <c r="I35" t="n">
-        <v>52.70198604918645</v>
+        <v>52.70198604918647</v>
       </c>
       <c r="J35" t="n">
         <v>116.0239981438853</v>
@@ -33669,7 +33669,7 @@
         <v>240.036511454749</v>
       </c>
       <c r="N35" t="n">
-        <v>243.9205531605333</v>
+        <v>243.9205531605334</v>
       </c>
       <c r="O35" t="n">
         <v>230.327261576937</v>
@@ -33681,13 +33681,13 @@
         <v>147.6226339658669</v>
       </c>
       <c r="R35" t="n">
-        <v>85.87098453179971</v>
+        <v>85.87098453179972</v>
       </c>
       <c r="S35" t="n">
-        <v>31.15093721797124</v>
+        <v>31.15093721797125</v>
       </c>
       <c r="T35" t="n">
-        <v>5.984124088718334</v>
+        <v>5.984124088718336</v>
       </c>
       <c r="U35" t="n">
         <v>0.1093614910559604</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7314194534479714</v>
+        <v>0.7314194534479715</v>
       </c>
       <c r="H36" t="n">
-        <v>7.063972089879093</v>
+        <v>7.063972089879095</v>
       </c>
       <c r="I36" t="n">
         <v>25.1826434630113</v>
       </c>
       <c r="J36" t="n">
-        <v>69.1030984505384</v>
+        <v>69.10309845053841</v>
       </c>
       <c r="K36" t="n">
         <v>118.1082018315525</v>
@@ -33745,22 +33745,22 @@
         <v>158.8110528199203</v>
       </c>
       <c r="M36" t="n">
-        <v>185.3250080074092</v>
+        <v>185.3250080074093</v>
       </c>
       <c r="N36" t="n">
-        <v>190.2300095175932</v>
+        <v>190.2300095175933</v>
       </c>
       <c r="O36" t="n">
         <v>174.0232942596145</v>
       </c>
       <c r="P36" t="n">
-        <v>139.6690358079727</v>
+        <v>139.6690358079728</v>
       </c>
       <c r="Q36" t="n">
-        <v>93.36505163662176</v>
+        <v>93.36505163662177</v>
       </c>
       <c r="R36" t="n">
-        <v>45.41216571495389</v>
+        <v>45.4121657149539</v>
       </c>
       <c r="S36" t="n">
         <v>13.58579554979016</v>
@@ -33769,7 +33769,7 @@
         <v>2.948133674204761</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04811970088473498</v>
+        <v>0.04811970088473499</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6131974997989176</v>
+        <v>0.6131974997989177</v>
       </c>
       <c r="H37" t="n">
-        <v>5.451883225484925</v>
+        <v>5.451883225484926</v>
       </c>
       <c r="I37" t="n">
         <v>18.44052117577109</v>
@@ -33818,28 +33818,28 @@
         <v>43.35306323578347</v>
       </c>
       <c r="K37" t="n">
-        <v>71.24240043118331</v>
+        <v>71.24240043118333</v>
       </c>
       <c r="L37" t="n">
-        <v>91.16574465192272</v>
+        <v>91.16574465192274</v>
       </c>
       <c r="M37" t="n">
-        <v>96.12149535484303</v>
+        <v>96.12149535484305</v>
       </c>
       <c r="N37" t="n">
-        <v>93.83594103741079</v>
+        <v>93.83594103741081</v>
       </c>
       <c r="O37" t="n">
-        <v>86.67267933521431</v>
+        <v>86.67267933521433</v>
       </c>
       <c r="P37" t="n">
-        <v>74.16345033931633</v>
+        <v>74.16345033931634</v>
       </c>
       <c r="Q37" t="n">
-        <v>51.34692882407118</v>
+        <v>51.34692882407119</v>
       </c>
       <c r="R37" t="n">
-        <v>27.5715894000495</v>
+        <v>27.57158940004951</v>
       </c>
       <c r="S37" t="n">
         <v>10.6863600646775</v>
@@ -33891,7 +33891,7 @@
         <v>13.99997962846068</v>
       </c>
       <c r="I38" t="n">
-        <v>52.70198604918645</v>
+        <v>52.70198604918647</v>
       </c>
       <c r="J38" t="n">
         <v>116.0239981438853</v>
@@ -33906,7 +33906,7 @@
         <v>240.036511454749</v>
       </c>
       <c r="N38" t="n">
-        <v>243.9205531605333</v>
+        <v>243.9205531605334</v>
       </c>
       <c r="O38" t="n">
         <v>230.327261576937</v>
@@ -33918,13 +33918,13 @@
         <v>147.6226339658669</v>
       </c>
       <c r="R38" t="n">
-        <v>85.87098453179971</v>
+        <v>85.87098453179972</v>
       </c>
       <c r="S38" t="n">
-        <v>31.15093721797124</v>
+        <v>31.15093721797125</v>
       </c>
       <c r="T38" t="n">
-        <v>5.984124088718334</v>
+        <v>5.984124088718336</v>
       </c>
       <c r="U38" t="n">
         <v>0.1093614910559604</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7314194534479714</v>
+        <v>0.7314194534479715</v>
       </c>
       <c r="H39" t="n">
-        <v>7.063972089879093</v>
+        <v>7.063972089879095</v>
       </c>
       <c r="I39" t="n">
         <v>25.1826434630113</v>
       </c>
       <c r="J39" t="n">
-        <v>69.1030984505384</v>
+        <v>69.10309845053841</v>
       </c>
       <c r="K39" t="n">
         <v>118.1082018315525</v>
@@ -33982,22 +33982,22 @@
         <v>158.8110528199203</v>
       </c>
       <c r="M39" t="n">
-        <v>185.3250080074092</v>
+        <v>185.3250080074093</v>
       </c>
       <c r="N39" t="n">
-        <v>190.2300095175932</v>
+        <v>190.2300095175933</v>
       </c>
       <c r="O39" t="n">
         <v>174.0232942596145</v>
       </c>
       <c r="P39" t="n">
-        <v>139.6690358079727</v>
+        <v>139.6690358079728</v>
       </c>
       <c r="Q39" t="n">
-        <v>93.36505163662176</v>
+        <v>93.36505163662177</v>
       </c>
       <c r="R39" t="n">
-        <v>45.41216571495389</v>
+        <v>45.4121657149539</v>
       </c>
       <c r="S39" t="n">
         <v>13.58579554979016</v>
@@ -34006,7 +34006,7 @@
         <v>2.948133674204761</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04811970088473498</v>
+        <v>0.04811970088473499</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6131974997989176</v>
+        <v>0.6131974997989177</v>
       </c>
       <c r="H40" t="n">
-        <v>5.451883225484925</v>
+        <v>5.451883225484926</v>
       </c>
       <c r="I40" t="n">
         <v>18.44052117577109</v>
@@ -34055,28 +34055,28 @@
         <v>43.35306323578347</v>
       </c>
       <c r="K40" t="n">
-        <v>71.24240043118331</v>
+        <v>71.24240043118333</v>
       </c>
       <c r="L40" t="n">
-        <v>91.16574465192272</v>
+        <v>91.16574465192274</v>
       </c>
       <c r="M40" t="n">
-        <v>96.12149535484303</v>
+        <v>96.12149535484305</v>
       </c>
       <c r="N40" t="n">
-        <v>93.83594103741079</v>
+        <v>93.83594103741081</v>
       </c>
       <c r="O40" t="n">
-        <v>86.67267933521431</v>
+        <v>86.67267933521433</v>
       </c>
       <c r="P40" t="n">
-        <v>74.16345033931633</v>
+        <v>74.16345033931634</v>
       </c>
       <c r="Q40" t="n">
-        <v>51.34692882407118</v>
+        <v>51.34692882407119</v>
       </c>
       <c r="R40" t="n">
-        <v>27.5715894000495</v>
+        <v>27.57158940004951</v>
       </c>
       <c r="S40" t="n">
         <v>10.6863600646775</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L3" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M3" t="n">
-        <v>208.6021859347056</v>
+        <v>223.6594671380758</v>
       </c>
       <c r="N3" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q3" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34956,7 +34956,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.059542658712616</v>
+        <v>4.059542658712711</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,16 +35017,16 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L6" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M6" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>82.55611253552989</v>
+        <v>216.1914763840507</v>
       </c>
       <c r="O6" t="n">
         <v>270.5854737144654</v>
@@ -35260,10 +35260,10 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>223.6594671380758</v>
       </c>
       <c r="N9" t="n">
-        <v>223.6594671380758</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>270.5854737144654</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>91.61170339088127</v>
+        <v>91.61170339088126</v>
       </c>
       <c r="K11" t="n">
         <v>260.8139053285979</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>62.42395463548086</v>
       </c>
       <c r="K12" t="n">
-        <v>60.65945705079714</v>
+        <v>234.5769390236307</v>
       </c>
       <c r="L12" t="n">
-        <v>376.8818925673478</v>
+        <v>376.8818925673477</v>
       </c>
       <c r="M12" t="n">
         <v>493.1369216240496</v>
       </c>
       <c r="N12" t="n">
-        <v>521.7430633156725</v>
+        <v>285.4016267073582</v>
       </c>
       <c r="O12" t="n">
         <v>408.9818421596317</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>41.88288746149178</v>
+        <v>41.88288746149176</v>
       </c>
       <c r="L13" t="n">
         <v>109.9629641938515</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>91.61170339088127</v>
+        <v>91.61170339088126</v>
       </c>
       <c r="K14" t="n">
         <v>260.8139053285979</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>62.42395463548087</v>
+        <v>62.42395463548086</v>
       </c>
       <c r="K15" t="n">
         <v>234.5769390236307</v>
       </c>
       <c r="L15" t="n">
-        <v>376.8818925673478</v>
+        <v>140.5404559590334</v>
       </c>
       <c r="M15" t="n">
         <v>493.1369216240496</v>
@@ -35743,10 +35743,10 @@
         <v>408.9818421596317</v>
       </c>
       <c r="P15" t="n">
-        <v>231.5591197162084</v>
+        <v>311.6515190731783</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>156.2490372513446</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>41.88288746149178</v>
+        <v>41.88288746149176</v>
       </c>
       <c r="L16" t="n">
         <v>109.9629641938515</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>91.61170339088127</v>
+        <v>91.61170339088126</v>
       </c>
       <c r="K17" t="n">
         <v>260.8139053285979</v>
@@ -35965,10 +35965,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>234.5769390236307</v>
+        <v>216.9084943021416</v>
       </c>
       <c r="L18" t="n">
-        <v>376.8818925673478</v>
+        <v>376.8818925673477</v>
       </c>
       <c r="M18" t="n">
         <v>493.1369216240496</v>
@@ -35980,7 +35980,7 @@
         <v>408.9818421596317</v>
       </c>
       <c r="P18" t="n">
-        <v>293.9830743516893</v>
+        <v>311.6515190731783</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>41.88288746149178</v>
+        <v>41.88288746149176</v>
       </c>
       <c r="L19" t="n">
         <v>109.9629641938515</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.57108920456356</v>
       </c>
       <c r="K27" t="n">
         <v>258.7566453246343</v>
@@ -36685,7 +36685,7 @@
         <v>531.0775912334414</v>
       </c>
       <c r="N27" t="n">
-        <v>560.687909553639</v>
+        <v>413.5023617933115</v>
       </c>
       <c r="O27" t="n">
         <v>444.6087679740799</v>
@@ -36694,7 +36694,7 @@
         <v>340.2452679645354</v>
       </c>
       <c r="Q27" t="n">
-        <v>104.7487425922701</v>
+        <v>175.3632011480339</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36846,10 +36846,10 @@
         <v>475.0836175423207</v>
       </c>
       <c r="O29" t="n">
-        <v>402.0136939540475</v>
+        <v>402.0136939540477</v>
       </c>
       <c r="P29" t="n">
-        <v>305.7974745833408</v>
+        <v>305.7974745833409</v>
       </c>
       <c r="Q29" t="n">
         <v>151.6821766245795</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.57108920456356</v>
       </c>
       <c r="K30" t="n">
-        <v>258.7566453246342</v>
+        <v>258.7566453246343</v>
       </c>
       <c r="L30" t="n">
         <v>409.3944916501405</v>
@@ -36922,7 +36922,7 @@
         <v>531.0775912334414</v>
       </c>
       <c r="N30" t="n">
-        <v>560.6879095536389</v>
+        <v>413.5023617933115</v>
       </c>
       <c r="O30" t="n">
         <v>444.6087679740799</v>
@@ -36931,7 +36931,7 @@
         <v>340.2452679645354</v>
       </c>
       <c r="Q30" t="n">
-        <v>104.7487425922701</v>
+        <v>175.3632011480339</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.46799071334996</v>
+        <v>56.46799071334998</v>
       </c>
       <c r="L31" t="n">
         <v>128.626874880932</v>
@@ -37007,7 +37007,7 @@
         <v>121.2408873651854</v>
       </c>
       <c r="P31" t="n">
-        <v>80.28547223800017</v>
+        <v>80.28547223800018</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37071,10 +37071,10 @@
         <v>115.3647210093229</v>
       </c>
       <c r="K32" t="n">
-        <v>296.4135214040257</v>
+        <v>296.4135214040258</v>
       </c>
       <c r="L32" t="n">
-        <v>420.2212022843994</v>
+        <v>420.2212022843995</v>
       </c>
       <c r="M32" t="n">
         <v>482.9430088907039</v>
@@ -37083,10 +37083,10 @@
         <v>475.0836175423207</v>
       </c>
       <c r="O32" t="n">
-        <v>402.0136939540475</v>
+        <v>402.0136939540477</v>
       </c>
       <c r="P32" t="n">
-        <v>305.7974745833408</v>
+        <v>305.7974745833409</v>
       </c>
       <c r="Q32" t="n">
         <v>151.6821766245795</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.57108920456358</v>
       </c>
       <c r="K33" t="n">
-        <v>258.7566453246342</v>
+        <v>258.7566453246343</v>
       </c>
       <c r="L33" t="n">
         <v>409.3944916501405</v>
@@ -37159,7 +37159,7 @@
         <v>531.0775912334414</v>
       </c>
       <c r="N33" t="n">
-        <v>560.6879095536389</v>
+        <v>413.5023617933115</v>
       </c>
       <c r="O33" t="n">
         <v>444.6087679740799</v>
@@ -37168,7 +37168,7 @@
         <v>340.2452679645354</v>
       </c>
       <c r="Q33" t="n">
-        <v>104.7487425922701</v>
+        <v>175.3632011480339</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.46799071334996</v>
+        <v>56.46799071334999</v>
       </c>
       <c r="L34" t="n">
         <v>128.626874880932</v>
@@ -37244,7 +37244,7 @@
         <v>121.2408873651854</v>
       </c>
       <c r="P34" t="n">
-        <v>80.28547223800017</v>
+        <v>80.2854722380002</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37320,10 +37320,10 @@
         <v>475.0836175423207</v>
       </c>
       <c r="O35" t="n">
-        <v>402.0136939540475</v>
+        <v>402.0136939540477</v>
       </c>
       <c r="P35" t="n">
-        <v>305.7974745833408</v>
+        <v>305.7974745833409</v>
       </c>
       <c r="Q35" t="n">
         <v>151.6821766245795</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.57108920456356</v>
       </c>
       <c r="K36" t="n">
-        <v>258.7566453246342</v>
+        <v>258.7566453246343</v>
       </c>
       <c r="L36" t="n">
         <v>409.3944916501405</v>
@@ -37396,7 +37396,7 @@
         <v>531.0775912334414</v>
       </c>
       <c r="N36" t="n">
-        <v>560.6879095536389</v>
+        <v>560.687909553639</v>
       </c>
       <c r="O36" t="n">
         <v>444.6087679740799</v>
@@ -37405,7 +37405,7 @@
         <v>340.2452679645354</v>
       </c>
       <c r="Q36" t="n">
-        <v>104.7487425922701</v>
+        <v>28.17765338770664</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.46799071334996</v>
+        <v>56.46799071334998</v>
       </c>
       <c r="L37" t="n">
         <v>128.626874880932</v>
@@ -37481,7 +37481,7 @@
         <v>121.2408873651854</v>
       </c>
       <c r="P37" t="n">
-        <v>80.28547223800017</v>
+        <v>80.28547223800018</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37557,10 +37557,10 @@
         <v>475.0836175423207</v>
       </c>
       <c r="O38" t="n">
-        <v>402.0136939540475</v>
+        <v>402.0136939540477</v>
       </c>
       <c r="P38" t="n">
-        <v>305.7974745833408</v>
+        <v>305.7974745833409</v>
       </c>
       <c r="Q38" t="n">
         <v>151.6821766245795</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.57108920456355</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>258.7566453246342</v>
+        <v>258.7566453246343</v>
       </c>
       <c r="L39" t="n">
         <v>409.3944916501405</v>
@@ -37633,7 +37633,7 @@
         <v>531.0775912334414</v>
       </c>
       <c r="N39" t="n">
-        <v>560.6879095536389</v>
+        <v>560.687909553639</v>
       </c>
       <c r="O39" t="n">
         <v>444.6087679740799</v>
@@ -37642,7 +37642,7 @@
         <v>340.2452679645354</v>
       </c>
       <c r="Q39" t="n">
-        <v>28.17765338770664</v>
+        <v>104.7487425922701</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.46799071334996</v>
+        <v>56.46799071334998</v>
       </c>
       <c r="L40" t="n">
         <v>128.626874880932</v>
@@ -37718,7 +37718,7 @@
         <v>121.2408873651854</v>
       </c>
       <c r="P40" t="n">
-        <v>80.28547223800017</v>
+        <v>80.28547223800018</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.57108920456356</v>
       </c>
       <c r="K42" t="n">
         <v>258.7566453246343</v>
@@ -37870,7 +37870,7 @@
         <v>531.0775912334414</v>
       </c>
       <c r="N42" t="n">
-        <v>560.687909553639</v>
+        <v>413.5023617933115</v>
       </c>
       <c r="O42" t="n">
         <v>444.6087679740799</v>
@@ -37879,7 +37879,7 @@
         <v>340.2452679645354</v>
       </c>
       <c r="Q42" t="n">
-        <v>104.7487425922701</v>
+        <v>175.3632011480339</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>115.3647210093229</v>
       </c>
       <c r="K44" t="n">
-        <v>296.4135214040258</v>
+        <v>296.4135214040257</v>
       </c>
       <c r="L44" t="n">
         <v>420.2212022843994</v>
@@ -38037,7 +38037,7 @@
         <v>305.7974745833409</v>
       </c>
       <c r="Q44" t="n">
-        <v>151.6821766245795</v>
+        <v>151.6821766245793</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38107,7 +38107,7 @@
         <v>531.0775912334414</v>
       </c>
       <c r="N45" t="n">
-        <v>560.687909553639</v>
+        <v>413.5023617933115</v>
       </c>
       <c r="O45" t="n">
         <v>444.6087679740799</v>
@@ -38116,7 +38116,7 @@
         <v>340.2452679645354</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.17765338770664</v>
+        <v>175.3632011480339</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
